--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5152,28 +5152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1311.043287532918</v>
+        <v>1435.931757133317</v>
       </c>
       <c r="AB2" t="n">
-        <v>1793.827265150303</v>
+        <v>1964.705178947992</v>
       </c>
       <c r="AC2" t="n">
-        <v>1622.626908616736</v>
+        <v>1777.196474150232</v>
       </c>
       <c r="AD2" t="n">
-        <v>1311043.287532918</v>
+        <v>1435931.757133317</v>
       </c>
       <c r="AE2" t="n">
-        <v>1793827.265150303</v>
+        <v>1964705.178947992</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.003753450548892e-07</v>
+        <v>1.522129194019461e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.50385802469136</v>
       </c>
       <c r="AH2" t="n">
-        <v>1622626.908616736</v>
+        <v>1777196.474150232</v>
       </c>
     </row>
     <row r="3">
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>796.5447017051542</v>
+        <v>879.7753239957802</v>
       </c>
       <c r="AB3" t="n">
-        <v>1089.8676019451</v>
+        <v>1203.747411239041</v>
       </c>
       <c r="AC3" t="n">
-        <v>985.8521676542448</v>
+        <v>1088.863447780489</v>
       </c>
       <c r="AD3" t="n">
-        <v>796544.7017051543</v>
+        <v>879775.3239957802</v>
       </c>
       <c r="AE3" t="n">
-        <v>1089867.6019451</v>
+        <v>1203747.411239041</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.262384634220974e-06</v>
+        <v>2.134123858880412e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.04938271604938</v>
       </c>
       <c r="AH3" t="n">
-        <v>985852.1676542448</v>
+        <v>1088863.447780489</v>
       </c>
     </row>
     <row r="4">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>680.2452058693387</v>
+        <v>753.0613439553841</v>
       </c>
       <c r="AB4" t="n">
-        <v>930.7415009708926</v>
+        <v>1030.371753521511</v>
       </c>
       <c r="AC4" t="n">
-        <v>841.9128384221307</v>
+        <v>932.0345195012553</v>
       </c>
       <c r="AD4" t="n">
-        <v>680245.2058693387</v>
+        <v>753061.3439553841</v>
       </c>
       <c r="AE4" t="n">
-        <v>930741.5009708926</v>
+        <v>1030371.753521511</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.401400822879414e-06</v>
+        <v>2.369137623262674e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.45987654320988</v>
       </c>
       <c r="AH4" t="n">
-        <v>841912.8384221307</v>
+        <v>932034.5195012554</v>
       </c>
     </row>
     <row r="5">
@@ -5470,28 +5470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>625.4044531197709</v>
+        <v>698.3058425518366</v>
       </c>
       <c r="AB5" t="n">
-        <v>855.7059636556751</v>
+        <v>955.4528608589425</v>
       </c>
       <c r="AC5" t="n">
-        <v>774.0385874752398</v>
+        <v>864.2657808050767</v>
       </c>
       <c r="AD5" t="n">
-        <v>625404.4531197709</v>
+        <v>698305.8425518366</v>
       </c>
       <c r="AE5" t="n">
-        <v>855705.9636556751</v>
+        <v>955452.8608589425</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.477394938855523e-06</v>
+        <v>2.497609446859627e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.71527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>774038.5874752398</v>
+        <v>864265.7808050767</v>
       </c>
     </row>
     <row r="6">
@@ -5576,28 +5576,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>599.8620047060971</v>
+        <v>672.5928019375708</v>
       </c>
       <c r="AB6" t="n">
-        <v>820.7576588827922</v>
+        <v>920.2711443112124</v>
       </c>
       <c r="AC6" t="n">
-        <v>742.4256998596268</v>
+        <v>832.4417579068127</v>
       </c>
       <c r="AD6" t="n">
-        <v>599862.0047060971</v>
+        <v>672592.8019375708</v>
       </c>
       <c r="AE6" t="n">
-        <v>820757.6588827921</v>
+        <v>920271.1443112125</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.524136309428251e-06</v>
+        <v>2.576628052942066e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.29475308641975</v>
       </c>
       <c r="AH6" t="n">
-        <v>742425.6998596268</v>
+        <v>832441.7579068127</v>
       </c>
     </row>
     <row r="7">
@@ -5682,28 +5682,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>569.762375958108</v>
+        <v>642.5784245356022</v>
       </c>
       <c r="AB7" t="n">
-        <v>779.5740189278914</v>
+        <v>879.2041490089612</v>
       </c>
       <c r="AC7" t="n">
-        <v>705.1725687004204</v>
+        <v>795.2941389983184</v>
       </c>
       <c r="AD7" t="n">
-        <v>569762.375958108</v>
+        <v>642578.4245356021</v>
       </c>
       <c r="AE7" t="n">
-        <v>779574.0189278914</v>
+        <v>879204.1490089612</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.558640894221827e-06</v>
+        <v>2.634959765522023e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.99768518518518</v>
       </c>
       <c r="AH7" t="n">
-        <v>705172.5687004203</v>
+        <v>795294.1389983185</v>
       </c>
     </row>
     <row r="8">
@@ -5788,28 +5788,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>557.240280936048</v>
+        <v>630.0563295135421</v>
       </c>
       <c r="AB8" t="n">
-        <v>762.4407360828656</v>
+        <v>862.0708661639353</v>
       </c>
       <c r="AC8" t="n">
-        <v>689.6744623234101</v>
+        <v>779.7960326213082</v>
       </c>
       <c r="AD8" t="n">
-        <v>557240.2809360479</v>
+        <v>630056.3295135421</v>
       </c>
       <c r="AE8" t="n">
-        <v>762440.7360828655</v>
+        <v>862070.8661639353</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.57980580696431e-06</v>
+        <v>2.670740100635756e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.82407407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>689674.4623234101</v>
+        <v>779796.0326213082</v>
       </c>
     </row>
     <row r="9">
@@ -5894,28 +5894,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>545.6207249718349</v>
+        <v>618.436773549329</v>
       </c>
       <c r="AB9" t="n">
-        <v>746.542346993999</v>
+        <v>846.1724770750685</v>
       </c>
       <c r="AC9" t="n">
-        <v>675.2933931756558</v>
+        <v>765.4149634735539</v>
       </c>
       <c r="AD9" t="n">
-        <v>545620.7249718349</v>
+        <v>618436.773549329</v>
       </c>
       <c r="AE9" t="n">
-        <v>746542.346993999</v>
+        <v>846172.4770750685</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.599972870222656e-06</v>
+        <v>2.704833521687055e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.6658950617284</v>
       </c>
       <c r="AH9" t="n">
-        <v>675293.3931756557</v>
+        <v>765414.9634735539</v>
       </c>
     </row>
     <row r="10">
@@ -6000,28 +6000,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>536.4477061107509</v>
+        <v>609.2637546882451</v>
       </c>
       <c r="AB10" t="n">
-        <v>733.991417903233</v>
+        <v>833.6215479843028</v>
       </c>
       <c r="AC10" t="n">
-        <v>663.9403071419728</v>
+        <v>754.061877439871</v>
       </c>
       <c r="AD10" t="n">
-        <v>536447.7061107509</v>
+        <v>609263.754688245</v>
       </c>
       <c r="AE10" t="n">
-        <v>733991.417903233</v>
+        <v>833621.5479843027</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.612419729577415e-06</v>
+        <v>2.725875554992153e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.56558641975309</v>
       </c>
       <c r="AH10" t="n">
-        <v>663940.3071419728</v>
+        <v>754061.877439871</v>
       </c>
     </row>
     <row r="11">
@@ -6106,28 +6106,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>529.0725073059924</v>
+        <v>591.4741611874568</v>
       </c>
       <c r="AB11" t="n">
-        <v>723.9003455277547</v>
+        <v>809.2810413350488</v>
       </c>
       <c r="AC11" t="n">
-        <v>654.8123125511011</v>
+        <v>732.0443945831063</v>
       </c>
       <c r="AD11" t="n">
-        <v>529072.5073059924</v>
+        <v>591474.1611874568</v>
       </c>
       <c r="AE11" t="n">
-        <v>723900.3455277546</v>
+        <v>809281.0413350489</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.622398224418785e-06</v>
+        <v>2.742744695616494e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.48842592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>654812.3125511011</v>
+        <v>732044.3945831063</v>
       </c>
     </row>
     <row r="12">
@@ -6212,28 +6212,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>521.1933415066761</v>
+        <v>583.5949953881405</v>
       </c>
       <c r="AB12" t="n">
-        <v>713.1197232768676</v>
+        <v>798.5004190841618</v>
       </c>
       <c r="AC12" t="n">
-        <v>645.0605777571404</v>
+        <v>722.2926597891454</v>
       </c>
       <c r="AD12" t="n">
-        <v>521193.3415066761</v>
+        <v>583594.9953881406</v>
       </c>
       <c r="AE12" t="n">
-        <v>713119.7232768676</v>
+        <v>798500.4190841618</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.633217013562584e-06</v>
+        <v>2.761034395451305e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.40740740740741</v>
       </c>
       <c r="AH12" t="n">
-        <v>645060.5777571404</v>
+        <v>722292.6597891455</v>
       </c>
     </row>
     <row r="13">
@@ -6318,28 +6318,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>514.1516619288514</v>
+        <v>576.5533158103158</v>
       </c>
       <c r="AB13" t="n">
-        <v>703.4849866215098</v>
+        <v>788.8656824288041</v>
       </c>
       <c r="AC13" t="n">
-        <v>636.3453668457322</v>
+        <v>713.5774488777374</v>
       </c>
       <c r="AD13" t="n">
-        <v>514151.6619288514</v>
+        <v>576553.3158103158</v>
       </c>
       <c r="AE13" t="n">
-        <v>703484.9866215099</v>
+        <v>788865.6824288041</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.640254478345445e-06</v>
+        <v>2.772931578838999e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.3533950617284</v>
       </c>
       <c r="AH13" t="n">
-        <v>636345.3668457322</v>
+        <v>713577.4488777374</v>
       </c>
     </row>
     <row r="14">
@@ -6424,28 +6424,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>507.0111151757429</v>
+        <v>569.4127690572074</v>
       </c>
       <c r="AB14" t="n">
-        <v>693.7149755352173</v>
+        <v>779.0956713425113</v>
       </c>
       <c r="AC14" t="n">
-        <v>627.5077919052185</v>
+        <v>704.7398739372236</v>
       </c>
       <c r="AD14" t="n">
-        <v>507011.1151757429</v>
+        <v>569412.7690572074</v>
       </c>
       <c r="AE14" t="n">
-        <v>693714.9755352172</v>
+        <v>779095.6713425113</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.647554535097815e-06</v>
+        <v>2.785272686979964e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.29938271604938</v>
       </c>
       <c r="AH14" t="n">
-        <v>627507.7919052185</v>
+        <v>704739.8739372236</v>
       </c>
     </row>
     <row r="15">
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>500.4859161199666</v>
+        <v>562.8875700014311</v>
       </c>
       <c r="AB15" t="n">
-        <v>684.7869103156388</v>
+        <v>770.1676061229329</v>
       </c>
       <c r="AC15" t="n">
-        <v>619.4318086995784</v>
+        <v>696.6638907315836</v>
       </c>
       <c r="AD15" t="n">
-        <v>500485.9161199667</v>
+        <v>562887.570001431</v>
       </c>
       <c r="AE15" t="n">
-        <v>684786.9103156388</v>
+        <v>770167.6061229329</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.653699187184342e-06</v>
+        <v>2.795660526206532e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.25308641975309</v>
       </c>
       <c r="AH15" t="n">
-        <v>619431.8086995784</v>
+        <v>696663.8907315836</v>
       </c>
     </row>
     <row r="16">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>492.8786897570416</v>
+        <v>555.280343638506</v>
       </c>
       <c r="AB16" t="n">
-        <v>674.3783675987436</v>
+        <v>759.7590634060377</v>
       </c>
       <c r="AC16" t="n">
-        <v>610.0166426911022</v>
+        <v>687.2487247231074</v>
       </c>
       <c r="AD16" t="n">
-        <v>492878.6897570416</v>
+        <v>555280.343638506</v>
       </c>
       <c r="AE16" t="n">
-        <v>674378.3675987435</v>
+        <v>759759.0634060377</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.657112882787968e-06</v>
+        <v>2.801431547999069e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.22608024691358</v>
       </c>
       <c r="AH16" t="n">
-        <v>610016.6426911022</v>
+        <v>687248.7247231074</v>
       </c>
     </row>
     <row r="17">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>488.5970846306376</v>
+        <v>550.998738512102</v>
       </c>
       <c r="AB17" t="n">
-        <v>668.5200865737105</v>
+        <v>753.9007823810047</v>
       </c>
       <c r="AC17" t="n">
-        <v>604.7174677849493</v>
+        <v>681.9495498169546</v>
       </c>
       <c r="AD17" t="n">
-        <v>488597.0846306376</v>
+        <v>550998.738512102</v>
       </c>
       <c r="AE17" t="n">
-        <v>668520.0865737105</v>
+        <v>753900.7823810047</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.6606841335733e-06</v>
+        <v>2.80746892464357e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.19907407407407</v>
       </c>
       <c r="AH17" t="n">
-        <v>604717.4677849493</v>
+        <v>681949.5498169545</v>
       </c>
     </row>
     <row r="18">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>485.4763933014385</v>
+        <v>547.8780471829029</v>
       </c>
       <c r="AB18" t="n">
-        <v>664.2502190219157</v>
+        <v>749.6309148292098</v>
       </c>
       <c r="AC18" t="n">
-        <v>600.855110399501</v>
+        <v>678.0871924315061</v>
       </c>
       <c r="AD18" t="n">
-        <v>485476.3933014385</v>
+        <v>547878.0471829029</v>
       </c>
       <c r="AE18" t="n">
-        <v>664250.2190219157</v>
+        <v>749630.9148292098</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.664412939540338e-06</v>
+        <v>2.813772656140034e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.17206790123457</v>
       </c>
       <c r="AH18" t="n">
-        <v>600855.1103995009</v>
+        <v>678087.1924315061</v>
       </c>
     </row>
     <row r="19">
@@ -6954,28 +6954,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>484.5432358036035</v>
+        <v>546.9448896850678</v>
       </c>
       <c r="AB19" t="n">
-        <v>662.9734317653744</v>
+        <v>748.3541275726686</v>
       </c>
       <c r="AC19" t="n">
-        <v>599.7001779267418</v>
+        <v>676.9322599587471</v>
       </c>
       <c r="AD19" t="n">
-        <v>484543.2358036035</v>
+        <v>546944.8896850678</v>
       </c>
       <c r="AE19" t="n">
-        <v>662973.4317653744</v>
+        <v>748354.1275726686</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.66420286596473e-06</v>
+        <v>2.813417516337416e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.17592592592593</v>
       </c>
       <c r="AH19" t="n">
-        <v>599700.1779267419</v>
+        <v>676932.2599587471</v>
       </c>
     </row>
     <row r="20">
@@ -7060,28 +7060,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>486.2669717263346</v>
+        <v>548.6686256077991</v>
       </c>
       <c r="AB20" t="n">
-        <v>665.3319233007171</v>
+        <v>750.7126191080114</v>
       </c>
       <c r="AC20" t="n">
-        <v>601.8335783401152</v>
+        <v>679.0656603721203</v>
       </c>
       <c r="AD20" t="n">
-        <v>486266.9717263347</v>
+        <v>548668.625607799</v>
       </c>
       <c r="AE20" t="n">
-        <v>665331.9233007171</v>
+        <v>750712.6191080114</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.663625163631809e-06</v>
+        <v>2.812440881880217e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.17978395061728</v>
       </c>
       <c r="AH20" t="n">
-        <v>601833.5783401151</v>
+        <v>679065.6603721203</v>
       </c>
     </row>
   </sheetData>
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>987.0711818053159</v>
+        <v>1087.976860243917</v>
       </c>
       <c r="AB2" t="n">
-        <v>1350.554337453217</v>
+        <v>1488.617938337263</v>
       </c>
       <c r="AC2" t="n">
-        <v>1221.659327001599</v>
+        <v>1346.546331590752</v>
       </c>
       <c r="AD2" t="n">
-        <v>987071.1818053159</v>
+        <v>1087976.860243917</v>
       </c>
       <c r="AE2" t="n">
-        <v>1350554.337453217</v>
+        <v>1488617.938337262</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.065130704549893e-06</v>
+        <v>1.844583775933637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.67978395061728</v>
       </c>
       <c r="AH2" t="n">
-        <v>1221659.327001599</v>
+        <v>1346546.331590752</v>
       </c>
     </row>
     <row r="3">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>651.1648965606799</v>
+        <v>731.8040984569894</v>
       </c>
       <c r="AB3" t="n">
-        <v>890.9525388420834</v>
+        <v>1001.286652427122</v>
       </c>
       <c r="AC3" t="n">
-        <v>805.9212789947362</v>
+        <v>905.7252596341199</v>
       </c>
       <c r="AD3" t="n">
-        <v>651164.89656068</v>
+        <v>731804.0984569894</v>
       </c>
       <c r="AE3" t="n">
-        <v>890952.5388420834</v>
+        <v>1001286.652427122</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.398279466615689e-06</v>
+        <v>2.421527806233309e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.98842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>805921.2789947363</v>
+        <v>905725.2596341199</v>
       </c>
     </row>
     <row r="4">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>572.8095538301542</v>
+        <v>643.4435287371753</v>
       </c>
       <c r="AB4" t="n">
-        <v>783.7433021244252</v>
+        <v>880.3878227432573</v>
       </c>
       <c r="AC4" t="n">
-        <v>708.9439413603026</v>
+        <v>796.3648445727098</v>
       </c>
       <c r="AD4" t="n">
-        <v>572809.5538301542</v>
+        <v>643443.5287371753</v>
       </c>
       <c r="AE4" t="n">
-        <v>783743.3021244252</v>
+        <v>880387.8227432573</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524161019405391e-06</v>
+        <v>2.639528347362522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.75385802469136</v>
       </c>
       <c r="AH4" t="n">
-        <v>708943.9413603026</v>
+        <v>796364.8445727098</v>
       </c>
     </row>
     <row r="5">
@@ -7675,28 +7675,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>540.5210266072135</v>
+        <v>601.0645231789252</v>
       </c>
       <c r="AB5" t="n">
-        <v>739.5647147087105</v>
+        <v>822.4029977086863</v>
       </c>
       <c r="AC5" t="n">
-        <v>668.9816963225068</v>
+        <v>743.9140098572252</v>
       </c>
       <c r="AD5" t="n">
-        <v>540521.0266072134</v>
+        <v>601064.5231789253</v>
       </c>
       <c r="AE5" t="n">
-        <v>739564.7147087106</v>
+        <v>822402.9977086863</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.589519460495598e-06</v>
+        <v>2.752715507905657e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.18672839506173</v>
       </c>
       <c r="AH5" t="n">
-        <v>668981.6963225068</v>
+        <v>743914.0098572252</v>
       </c>
     </row>
     <row r="6">
@@ -7781,28 +7781,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>510.638001005554</v>
+        <v>581.1866350580033</v>
       </c>
       <c r="AB6" t="n">
-        <v>698.6774407344747</v>
+        <v>795.205194231109</v>
       </c>
       <c r="AC6" t="n">
-        <v>631.9966463907225</v>
+        <v>719.3119265711911</v>
       </c>
       <c r="AD6" t="n">
-        <v>510638.001005554</v>
+        <v>581186.6350580032</v>
       </c>
       <c r="AE6" t="n">
-        <v>698677.4407344747</v>
+        <v>795205.194231109</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.629125697864478e-06</v>
+        <v>2.821305233621323e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.86651234567901</v>
       </c>
       <c r="AH6" t="n">
-        <v>631996.6463907225</v>
+        <v>719311.9265711911</v>
       </c>
     </row>
     <row r="7">
@@ -7887,28 +7887,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>495.0535942949203</v>
+        <v>565.6022283473696</v>
       </c>
       <c r="AB7" t="n">
-        <v>677.3541679374856</v>
+        <v>773.8819214341199</v>
       </c>
       <c r="AC7" t="n">
-        <v>612.7084368220767</v>
+        <v>700.0237170025451</v>
       </c>
       <c r="AD7" t="n">
-        <v>495053.5942949203</v>
+        <v>565602.2283473697</v>
       </c>
       <c r="AE7" t="n">
-        <v>677354.1679374856</v>
+        <v>773881.9214341199</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.657214071965589e-06</v>
+        <v>2.869948427304449e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.64660493827161</v>
       </c>
       <c r="AH7" t="n">
-        <v>612708.4368220767</v>
+        <v>700023.7170025451</v>
       </c>
     </row>
     <row r="8">
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>483.8891876795955</v>
+        <v>544.517935597328</v>
       </c>
       <c r="AB8" t="n">
-        <v>662.0785342675401</v>
+        <v>745.0334619201652</v>
       </c>
       <c r="AC8" t="n">
-        <v>598.8906881901044</v>
+        <v>673.928513975535</v>
       </c>
       <c r="AD8" t="n">
-        <v>483889.1876795955</v>
+        <v>544517.935597328</v>
       </c>
       <c r="AE8" t="n">
-        <v>662078.5342675401</v>
+        <v>745033.4619201652</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.67541446911041e-06</v>
+        <v>2.901467711412472e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.51157407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>598890.6881901043</v>
+        <v>673928.5139755351</v>
       </c>
     </row>
     <row r="9">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>472.4027784786983</v>
+        <v>532.8609341958385</v>
       </c>
       <c r="AB9" t="n">
-        <v>646.3623224542627</v>
+        <v>729.0838383320408</v>
       </c>
       <c r="AC9" t="n">
-        <v>584.6744095744443</v>
+        <v>659.501100077224</v>
       </c>
       <c r="AD9" t="n">
-        <v>472402.7784786983</v>
+        <v>532860.9341958385</v>
       </c>
       <c r="AE9" t="n">
-        <v>646362.3224542626</v>
+        <v>729083.8383320408</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.691713332225175e-06</v>
+        <v>2.929693935986819e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.39197530864197</v>
       </c>
       <c r="AH9" t="n">
-        <v>584674.4095744443</v>
+        <v>659501.100077224</v>
       </c>
     </row>
     <row r="10">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>463.9750381210659</v>
+        <v>524.4331938382062</v>
       </c>
       <c r="AB10" t="n">
-        <v>634.8311162912863</v>
+        <v>717.5526321690645</v>
       </c>
       <c r="AC10" t="n">
-        <v>574.2437255435128</v>
+        <v>649.0704160462925</v>
       </c>
       <c r="AD10" t="n">
-        <v>463975.0381210659</v>
+        <v>524433.1938382062</v>
       </c>
       <c r="AE10" t="n">
-        <v>634831.1162912863</v>
+        <v>717552.6321690645</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.704535104542124e-06</v>
+        <v>2.951898565985306e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.29552469135803</v>
       </c>
       <c r="AH10" t="n">
-        <v>574243.7255435128</v>
+        <v>649070.4160462925</v>
       </c>
     </row>
     <row r="11">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>453.1505231436611</v>
+        <v>513.6086788608013</v>
       </c>
       <c r="AB11" t="n">
-        <v>620.0205373553034</v>
+        <v>702.7420532330815</v>
       </c>
       <c r="AC11" t="n">
-        <v>560.8466474744021</v>
+        <v>635.6733379771817</v>
       </c>
       <c r="AD11" t="n">
-        <v>453150.5231436611</v>
+        <v>513608.6788608013</v>
       </c>
       <c r="AE11" t="n">
-        <v>620020.5373553034</v>
+        <v>702742.0532330815</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.715292354197869e-06</v>
+        <v>2.970527874204376e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.21836419753087</v>
       </c>
       <c r="AH11" t="n">
-        <v>560846.6474744021</v>
+        <v>635673.3379771818</v>
       </c>
     </row>
     <row r="12">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>444.5745297437465</v>
+        <v>505.0326854608866</v>
       </c>
       <c r="AB12" t="n">
-        <v>608.2864848394139</v>
+        <v>691.0080007171919</v>
       </c>
       <c r="AC12" t="n">
-        <v>550.2324764617828</v>
+        <v>625.0591669645625</v>
       </c>
       <c r="AD12" t="n">
-        <v>444574.5297437465</v>
+        <v>505032.6854608866</v>
       </c>
       <c r="AE12" t="n">
-        <v>608286.4848394139</v>
+        <v>691008.0007171918</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.721322933550332e-06</v>
+        <v>2.980971577296884e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.17592592592593</v>
       </c>
       <c r="AH12" t="n">
-        <v>550232.4764617828</v>
+        <v>625059.1669645625</v>
       </c>
     </row>
     <row r="13">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>440.3684164676672</v>
+        <v>500.8265721848074</v>
       </c>
       <c r="AB13" t="n">
-        <v>602.5314950944605</v>
+        <v>685.2530109722387</v>
       </c>
       <c r="AC13" t="n">
-        <v>545.0267348609091</v>
+        <v>619.8534253636889</v>
       </c>
       <c r="AD13" t="n">
-        <v>440368.4164676672</v>
+        <v>500826.5721848074</v>
       </c>
       <c r="AE13" t="n">
-        <v>602531.4950944606</v>
+        <v>685253.0109722387</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.727353512902795e-06</v>
+        <v>2.991415280389393e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.13348765432099</v>
       </c>
       <c r="AH13" t="n">
-        <v>545026.7348609091</v>
+        <v>619853.4253636888</v>
       </c>
     </row>
     <row r="14">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>442.2381634012826</v>
+        <v>502.6963191184229</v>
       </c>
       <c r="AB14" t="n">
-        <v>605.0897653364464</v>
+        <v>687.8112812142244</v>
       </c>
       <c r="AC14" t="n">
-        <v>547.3408473815546</v>
+        <v>622.1675378843344</v>
       </c>
       <c r="AD14" t="n">
-        <v>442238.1634012826</v>
+        <v>502696.3191184229</v>
       </c>
       <c r="AE14" t="n">
-        <v>605089.7653364463</v>
+        <v>687811.2812142244</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.72556063796017e-06</v>
+        <v>2.988310395686214e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.14506172839506</v>
       </c>
       <c r="AH14" t="n">
-        <v>547340.8473815545</v>
+        <v>622167.5378843343</v>
       </c>
     </row>
     <row r="15">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>443.8885015548786</v>
+        <v>504.3466572720188</v>
       </c>
       <c r="AB15" t="n">
-        <v>607.3478308059771</v>
+        <v>690.0693466837553</v>
       </c>
       <c r="AC15" t="n">
-        <v>549.3834062518882</v>
+        <v>624.2100967546679</v>
       </c>
       <c r="AD15" t="n">
-        <v>443888.5015548787</v>
+        <v>504346.6572720188</v>
       </c>
       <c r="AE15" t="n">
-        <v>607347.8308059771</v>
+        <v>690069.3466837553</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.725614967503886e-06</v>
+        <v>2.988404483101463e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.14506172839506</v>
       </c>
       <c r="AH15" t="n">
-        <v>549383.4062518883</v>
+        <v>624210.0967546679</v>
       </c>
     </row>
   </sheetData>
@@ -9032,28 +9032,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>472.3008380173137</v>
+        <v>545.138422064465</v>
       </c>
       <c r="AB2" t="n">
-        <v>646.2228430177006</v>
+        <v>745.8824388784329</v>
       </c>
       <c r="AC2" t="n">
-        <v>584.5482418595471</v>
+        <v>674.6964657644525</v>
       </c>
       <c r="AD2" t="n">
-        <v>472300.8380173137</v>
+        <v>545138.422064465</v>
       </c>
       <c r="AE2" t="n">
-        <v>646222.8430177006</v>
+        <v>745882.438878433</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.582646389603411e-06</v>
+        <v>2.994707538362373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.78009259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>584548.2418595471</v>
+        <v>674696.4657644525</v>
       </c>
     </row>
     <row r="3">
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.5400714252175</v>
+        <v>436.2622898596534</v>
       </c>
       <c r="AB3" t="n">
-        <v>509.725761031989</v>
+        <v>596.9133115198553</v>
       </c>
       <c r="AC3" t="n">
-        <v>461.0782498036941</v>
+        <v>539.944742841494</v>
       </c>
       <c r="AD3" t="n">
-        <v>372540.0714252176</v>
+        <v>436262.2898596535</v>
       </c>
       <c r="AE3" t="n">
-        <v>509725.761031989</v>
+        <v>596913.3115198553</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.812592676118609e-06</v>
+        <v>3.429815394526032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.90509259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>461078.2498036941</v>
+        <v>539944.7428414939</v>
       </c>
     </row>
     <row r="4">
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>343.2345349876954</v>
+        <v>397.8414773179671</v>
       </c>
       <c r="AB4" t="n">
-        <v>469.6286332091499</v>
+        <v>544.3442607936983</v>
       </c>
       <c r="AC4" t="n">
-        <v>424.8079355835944</v>
+        <v>492.3928085355153</v>
       </c>
       <c r="AD4" t="n">
-        <v>343234.5349876955</v>
+        <v>397841.4773179671</v>
       </c>
       <c r="AE4" t="n">
-        <v>469628.6332091499</v>
+        <v>544344.2607936983</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.889463725763025e-06</v>
+        <v>3.575271962312881e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.37654320987654</v>
       </c>
       <c r="AH4" t="n">
-        <v>424807.9355835944</v>
+        <v>492392.8085355153</v>
       </c>
     </row>
     <row r="5">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>334.5580254921313</v>
+        <v>389.164967822403</v>
       </c>
       <c r="AB5" t="n">
-        <v>457.7570501367353</v>
+        <v>532.4726777212836</v>
       </c>
       <c r="AC5" t="n">
-        <v>414.0693597377394</v>
+        <v>481.6542326896604</v>
       </c>
       <c r="AD5" t="n">
-        <v>334558.0254921313</v>
+        <v>389164.9678224029</v>
       </c>
       <c r="AE5" t="n">
-        <v>457757.0501367353</v>
+        <v>532472.6777212836</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.911106442421587e-06</v>
+        <v>3.616224639521009e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.23765432098765</v>
       </c>
       <c r="AH5" t="n">
-        <v>414069.3597377394</v>
+        <v>481654.2326896604</v>
       </c>
     </row>
     <row r="6">
@@ -9456,28 +9456,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>336.7529443209323</v>
+        <v>391.359886651204</v>
       </c>
       <c r="AB6" t="n">
-        <v>460.7602349112855</v>
+        <v>535.4758624958338</v>
       </c>
       <c r="AC6" t="n">
-        <v>416.7859247724028</v>
+        <v>484.3707977243239</v>
       </c>
       <c r="AD6" t="n">
-        <v>336752.9443209323</v>
+        <v>391359.886651204</v>
       </c>
       <c r="AE6" t="n">
-        <v>460760.2349112855</v>
+        <v>535475.8624958338</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.910439580003536e-06</v>
+        <v>3.61496279232412e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.24151234567901</v>
       </c>
       <c r="AH6" t="n">
-        <v>416785.9247724029</v>
+        <v>484370.7977243239</v>
       </c>
     </row>
   </sheetData>
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>627.8615546232068</v>
+        <v>703.7493495089658</v>
       </c>
       <c r="AB2" t="n">
-        <v>859.0678783323439</v>
+        <v>962.9009072282645</v>
       </c>
       <c r="AC2" t="n">
-        <v>777.079645733644</v>
+        <v>871.0029960823094</v>
       </c>
       <c r="AD2" t="n">
-        <v>627861.5546232067</v>
+        <v>703749.3495089657</v>
       </c>
       <c r="AE2" t="n">
-        <v>859067.8783323439</v>
+        <v>962900.9072282645</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.377310843676298e-06</v>
+        <v>2.509161239998647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.24614197530864</v>
       </c>
       <c r="AH2" t="n">
-        <v>777079.645733644</v>
+        <v>871002.9960823094</v>
       </c>
     </row>
     <row r="3">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>470.864847065938</v>
+        <v>537.3412625187451</v>
       </c>
       <c r="AB3" t="n">
-        <v>644.2580568465786</v>
+        <v>735.2140212015772</v>
       </c>
       <c r="AC3" t="n">
-        <v>582.7709721230021</v>
+        <v>665.0462268974576</v>
       </c>
       <c r="AD3" t="n">
-        <v>470864.8470659379</v>
+        <v>537341.2625187451</v>
       </c>
       <c r="AE3" t="n">
-        <v>644258.0568465786</v>
+        <v>735214.0212015773</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.647170509990338e-06</v>
+        <v>3.000786945309144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.58410493827161</v>
       </c>
       <c r="AH3" t="n">
-        <v>582770.9721230022</v>
+        <v>665046.2268974576</v>
       </c>
     </row>
     <row r="4">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>423.002984880033</v>
+        <v>489.3940594782685</v>
       </c>
       <c r="AB4" t="n">
-        <v>578.7713454874869</v>
+        <v>669.6105427202881</v>
       </c>
       <c r="AC4" t="n">
-        <v>523.5342205848457</v>
+        <v>605.7038523273623</v>
       </c>
       <c r="AD4" t="n">
-        <v>423002.9848800329</v>
+        <v>489394.0594782685</v>
       </c>
       <c r="AE4" t="n">
-        <v>578771.3454874869</v>
+        <v>669610.542720288</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.74385137475404e-06</v>
+        <v>3.176918484263067e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.83179012345679</v>
       </c>
       <c r="AH4" t="n">
-        <v>523534.2205848456</v>
+        <v>605703.8523273623</v>
       </c>
     </row>
     <row r="5">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>399.9584972446326</v>
+        <v>456.8530305724468</v>
       </c>
       <c r="AB5" t="n">
-        <v>547.2408608536895</v>
+        <v>625.0864713624676</v>
       </c>
       <c r="AC5" t="n">
-        <v>495.0129611511846</v>
+        <v>565.4290958500055</v>
       </c>
       <c r="AD5" t="n">
-        <v>399958.4972446326</v>
+        <v>456853.0305724468</v>
       </c>
       <c r="AE5" t="n">
-        <v>547240.8608536895</v>
+        <v>625086.4713624676</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.796396583797779e-06</v>
+        <v>3.272644443646542e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.45756172839506</v>
       </c>
       <c r="AH5" t="n">
-        <v>495012.9611511846</v>
+        <v>565429.0958500055</v>
       </c>
     </row>
     <row r="6">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>384.0075777867079</v>
+        <v>440.9021111145221</v>
       </c>
       <c r="AB6" t="n">
-        <v>525.4161091464555</v>
+        <v>603.2617196552337</v>
       </c>
       <c r="AC6" t="n">
-        <v>475.2711331156577</v>
+        <v>545.6872678144786</v>
       </c>
       <c r="AD6" t="n">
-        <v>384007.5777867079</v>
+        <v>440902.1111145221</v>
       </c>
       <c r="AE6" t="n">
-        <v>525416.1091464555</v>
+        <v>603261.7196552337</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.825105058937571e-06</v>
+        <v>3.324945050594468e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.2608024691358</v>
       </c>
       <c r="AH6" t="n">
-        <v>475271.1331156577</v>
+        <v>545687.2678144786</v>
       </c>
     </row>
     <row r="7">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>372.0286473859694</v>
+        <v>428.9231807137836</v>
       </c>
       <c r="AB7" t="n">
-        <v>509.0260080990535</v>
+        <v>586.8716186078317</v>
       </c>
       <c r="AC7" t="n">
-        <v>460.4452803085684</v>
+        <v>530.8614150073894</v>
       </c>
       <c r="AD7" t="n">
-        <v>372028.6473859694</v>
+        <v>428923.1807137836</v>
       </c>
       <c r="AE7" t="n">
-        <v>509026.0080990535</v>
+        <v>586871.6186078317</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.840300251839844e-06</v>
+        <v>3.352627392049732e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.16049382716049</v>
       </c>
       <c r="AH7" t="n">
-        <v>460445.2803085684</v>
+        <v>530861.4150073894</v>
       </c>
     </row>
     <row r="8">
@@ -10389,28 +10389,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>373.8671323429196</v>
+        <v>430.7616656707338</v>
       </c>
       <c r="AB8" t="n">
-        <v>511.5415043253847</v>
+        <v>589.3871148341628</v>
       </c>
       <c r="AC8" t="n">
-        <v>462.7207011055797</v>
+        <v>533.1368358044008</v>
       </c>
       <c r="AD8" t="n">
-        <v>373867.1323429196</v>
+        <v>430761.6656707338</v>
       </c>
       <c r="AE8" t="n">
-        <v>511541.5043253847</v>
+        <v>589387.1148341629</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.839314304208781e-06</v>
+        <v>3.350831209588896e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.16435185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>462720.7011055797</v>
+        <v>533136.8358044007</v>
       </c>
     </row>
   </sheetData>
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>373.7129696947178</v>
+        <v>435.3315194641891</v>
       </c>
       <c r="AB2" t="n">
-        <v>511.3305721889391</v>
+        <v>595.639790402089</v>
       </c>
       <c r="AC2" t="n">
-        <v>462.5299000361913</v>
+        <v>538.7927647918093</v>
       </c>
       <c r="AD2" t="n">
-        <v>373712.9696947178</v>
+        <v>435331.5194641891</v>
       </c>
       <c r="AE2" t="n">
-        <v>511330.5721889391</v>
+        <v>595639.790402089</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.754904058459699e-06</v>
+        <v>3.439046523672658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.84259259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>462529.9000361913</v>
+        <v>538792.7647918093</v>
       </c>
     </row>
     <row r="3">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.4232687145543</v>
+        <v>363.3245093715299</v>
       </c>
       <c r="AB3" t="n">
-        <v>424.7348111633319</v>
+        <v>497.1166224682295</v>
       </c>
       <c r="AC3" t="n">
-        <v>384.1987169049541</v>
+        <v>449.6725097274226</v>
       </c>
       <c r="AD3" t="n">
-        <v>310423.2687145543</v>
+        <v>363324.5093715299</v>
       </c>
       <c r="AE3" t="n">
-        <v>424734.8111633318</v>
+        <v>497116.6224682295</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.940770762699546e-06</v>
+        <v>3.80328537764373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.51543209876543</v>
       </c>
       <c r="AH3" t="n">
-        <v>384198.7169049541</v>
+        <v>449672.5097274226</v>
       </c>
     </row>
     <row r="4">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>305.7744020702241</v>
+        <v>358.5050505266075</v>
       </c>
       <c r="AB4" t="n">
-        <v>418.3740267270377</v>
+        <v>490.5224262570885</v>
       </c>
       <c r="AC4" t="n">
-        <v>378.4449968078429</v>
+        <v>443.7076543476603</v>
       </c>
       <c r="AD4" t="n">
-        <v>305774.4020702242</v>
+        <v>358505.0505266075</v>
       </c>
       <c r="AE4" t="n">
-        <v>418374.0267270377</v>
+        <v>490522.4262570884</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.957141136379208e-06</v>
+        <v>3.83536603551381e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.41126543209877</v>
       </c>
       <c r="AH4" t="n">
-        <v>378444.9968078429</v>
+        <v>443707.6543476603</v>
       </c>
     </row>
   </sheetData>
@@ -11195,28 +11195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1063.467436101551</v>
+        <v>1165.139249655691</v>
       </c>
       <c r="AB2" t="n">
-        <v>1455.083062946196</v>
+        <v>1594.194923694818</v>
       </c>
       <c r="AC2" t="n">
-        <v>1316.211977640516</v>
+        <v>1442.047197644012</v>
       </c>
       <c r="AD2" t="n">
-        <v>1063467.436101551</v>
+        <v>1165139.249655691</v>
       </c>
       <c r="AE2" t="n">
-        <v>1455083.062946196</v>
+        <v>1594194.923694818</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.021427197478943e-06</v>
+        <v>1.757346297876709e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.33564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1316211.977640516</v>
+        <v>1442047.197644012</v>
       </c>
     </row>
     <row r="3">
@@ -11301,28 +11301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>691.5727603726619</v>
+        <v>772.8078200921982</v>
       </c>
       <c r="AB3" t="n">
-        <v>946.2403607787739</v>
+        <v>1057.389753324944</v>
       </c>
       <c r="AC3" t="n">
-        <v>855.9325088027343</v>
+        <v>956.4739593234502</v>
       </c>
       <c r="AD3" t="n">
-        <v>691572.760372662</v>
+        <v>772807.8200921982</v>
       </c>
       <c r="AE3" t="n">
-        <v>946240.3607787739</v>
+        <v>1057389.753324944</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.362674658214884e-06</v>
+        <v>2.344456141108092e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.24305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>855932.5088027343</v>
+        <v>956473.9593234502</v>
       </c>
     </row>
     <row r="4">
@@ -11407,28 +11407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>596.9961955630293</v>
+        <v>678.231165774015</v>
       </c>
       <c r="AB4" t="n">
-        <v>816.8365323826704</v>
+        <v>927.9858024592921</v>
       </c>
       <c r="AC4" t="n">
-        <v>738.8788001693413</v>
+        <v>839.4201399088304</v>
       </c>
       <c r="AD4" t="n">
-        <v>596996.1955630294</v>
+        <v>678231.165774015</v>
       </c>
       <c r="AE4" t="n">
-        <v>816836.5323826704</v>
+        <v>927985.8024592921</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.491032806904452e-06</v>
+        <v>2.565293923730941e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.93132716049383</v>
       </c>
       <c r="AH4" t="n">
-        <v>738878.8001693413</v>
+        <v>839420.1399088304</v>
       </c>
     </row>
     <row r="5">
@@ -11513,28 +11513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>561.6868244605234</v>
+        <v>632.7461776900439</v>
       </c>
       <c r="AB5" t="n">
-        <v>768.5246931007083</v>
+        <v>865.7512351067513</v>
       </c>
       <c r="AC5" t="n">
-        <v>695.1777750223573</v>
+        <v>783.1251523176522</v>
       </c>
       <c r="AD5" t="n">
-        <v>561686.8244605234</v>
+        <v>632746.1776900438</v>
       </c>
       <c r="AE5" t="n">
-        <v>768524.6931007083</v>
+        <v>865751.2351067513</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.559411518664415e-06</v>
+        <v>2.68293821229261e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.32175925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>695177.7750223574</v>
+        <v>783125.1523176522</v>
       </c>
     </row>
     <row r="6">
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>529.6415851535457</v>
+        <v>600.7861897290866</v>
       </c>
       <c r="AB6" t="n">
-        <v>724.6789829447198</v>
+        <v>822.0221696034121</v>
       </c>
       <c r="AC6" t="n">
-        <v>655.5166379058155</v>
+        <v>743.5695274518228</v>
       </c>
       <c r="AD6" t="n">
-        <v>529641.5851535457</v>
+        <v>600786.1897290866</v>
       </c>
       <c r="AE6" t="n">
-        <v>724678.9829447198</v>
+        <v>822022.169603412</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.602969296470565e-06</v>
+        <v>2.757878550439374e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.95910493827161</v>
       </c>
       <c r="AH6" t="n">
-        <v>655516.6379058155</v>
+        <v>743569.5274518228</v>
       </c>
     </row>
     <row r="7">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>514.7077304000439</v>
+        <v>585.852334975585</v>
       </c>
       <c r="AB7" t="n">
-        <v>704.2458240358052</v>
+        <v>801.5890106944973</v>
       </c>
       <c r="AC7" t="n">
-        <v>637.0335910050492</v>
+        <v>725.0864805510563</v>
       </c>
       <c r="AD7" t="n">
-        <v>514707.7304000439</v>
+        <v>585852.334975585</v>
       </c>
       <c r="AE7" t="n">
-        <v>704245.8240358052</v>
+        <v>801589.0106944974</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.630805354722455e-06</v>
+        <v>2.805769965546762e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.7391975308642</v>
       </c>
       <c r="AH7" t="n">
-        <v>637033.5910050492</v>
+        <v>725086.4805510563</v>
       </c>
     </row>
     <row r="8">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>501.5355929479178</v>
+        <v>572.6801975234589</v>
       </c>
       <c r="AB8" t="n">
-        <v>686.2231244601149</v>
+        <v>783.5663111188072</v>
       </c>
       <c r="AC8" t="n">
-        <v>620.730952581845</v>
+        <v>708.7838421278522</v>
       </c>
       <c r="AD8" t="n">
-        <v>501535.5929479179</v>
+        <v>572680.1975234589</v>
       </c>
       <c r="AE8" t="n">
-        <v>686223.124460115</v>
+        <v>783566.3111188072</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.652611164378191e-06</v>
+        <v>2.843286451269184e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.56944444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>620730.952581845</v>
+        <v>708783.8421278521</v>
       </c>
     </row>
     <row r="9">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>490.7357913763871</v>
+        <v>551.7047789704631</v>
       </c>
       <c r="AB9" t="n">
-        <v>671.4463594963275</v>
+        <v>754.8668180844409</v>
       </c>
       <c r="AC9" t="n">
-        <v>607.3644613268816</v>
+        <v>682.8233884286944</v>
       </c>
       <c r="AD9" t="n">
-        <v>490735.7913763871</v>
+        <v>551704.7789704631</v>
       </c>
       <c r="AE9" t="n">
-        <v>671446.3594963276</v>
+        <v>754866.8180844409</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.668494408448419e-06</v>
+        <v>2.8706132742028e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.44984567901235</v>
       </c>
       <c r="AH9" t="n">
-        <v>607364.4613268817</v>
+        <v>682823.3884286945</v>
       </c>
     </row>
     <row r="10">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>482.3037775031709</v>
+        <v>543.2727650972467</v>
       </c>
       <c r="AB10" t="n">
-        <v>659.9093061207951</v>
+        <v>743.3297647089086</v>
       </c>
       <c r="AC10" t="n">
-        <v>596.9284881331539</v>
+        <v>672.3874152349666</v>
       </c>
       <c r="AD10" t="n">
-        <v>482303.7775031709</v>
+        <v>543272.7650972467</v>
       </c>
       <c r="AE10" t="n">
-        <v>659909.3061207951</v>
+        <v>743329.7647089085</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.681308686715247e-06</v>
+        <v>2.892659999145853e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.3533950617284</v>
       </c>
       <c r="AH10" t="n">
-        <v>596928.4881331539</v>
+        <v>672387.4152349667</v>
       </c>
     </row>
     <row r="11">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>472.7490940230369</v>
+        <v>533.7180816171128</v>
       </c>
       <c r="AB11" t="n">
-        <v>646.8361666603902</v>
+        <v>730.2566252485036</v>
       </c>
       <c r="AC11" t="n">
-        <v>585.1030307545835</v>
+        <v>660.5619578563964</v>
       </c>
       <c r="AD11" t="n">
-        <v>472749.0940230369</v>
+        <v>533718.0816171129</v>
       </c>
       <c r="AE11" t="n">
-        <v>646836.1666603902</v>
+        <v>730256.6252485036</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.691861621758516e-06</v>
+        <v>2.910816125569543e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.27623456790123</v>
       </c>
       <c r="AH11" t="n">
-        <v>585103.0307545835</v>
+        <v>660561.9578563963</v>
       </c>
     </row>
     <row r="12">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>465.205791952777</v>
+        <v>526.174779546853</v>
       </c>
       <c r="AB12" t="n">
-        <v>636.5150879808601</v>
+        <v>719.9355465689737</v>
       </c>
       <c r="AC12" t="n">
-        <v>575.766981338503</v>
+        <v>651.2259084403158</v>
       </c>
       <c r="AD12" t="n">
-        <v>465205.791952777</v>
+        <v>526174.7795468529</v>
       </c>
       <c r="AE12" t="n">
-        <v>636515.0879808601</v>
+        <v>719935.5465689737</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.698430285407899e-06</v>
+        <v>2.92211738793531e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.22993827160494</v>
       </c>
       <c r="AH12" t="n">
-        <v>575766.981338503</v>
+        <v>651225.9084403159</v>
       </c>
     </row>
     <row r="13">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>458.5892046351756</v>
+        <v>519.5581922292516</v>
       </c>
       <c r="AB13" t="n">
-        <v>627.4619813096871</v>
+        <v>710.8824398978005</v>
       </c>
       <c r="AC13" t="n">
-        <v>567.5778904619117</v>
+        <v>643.0368175637245</v>
       </c>
       <c r="AD13" t="n">
-        <v>458589.2046351756</v>
+        <v>519558.1922292516</v>
       </c>
       <c r="AE13" t="n">
-        <v>627461.981309687</v>
+        <v>710882.4398978006</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.70440669249873e-06</v>
+        <v>2.932399684022196e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH13" t="n">
-        <v>567577.8904619117</v>
+        <v>643036.8175637245</v>
       </c>
     </row>
     <row r="14">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>453.2447533722303</v>
+        <v>514.2137409663063</v>
       </c>
       <c r="AB14" t="n">
-        <v>620.1494673111763</v>
+        <v>703.5699258992896</v>
       </c>
       <c r="AC14" t="n">
-        <v>560.9632725362408</v>
+        <v>636.4221996380537</v>
       </c>
       <c r="AD14" t="n">
-        <v>453244.7533722303</v>
+        <v>514213.7409663063</v>
       </c>
       <c r="AE14" t="n">
-        <v>620149.4673111762</v>
+        <v>703569.9258992897</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.708229439376649e-06</v>
+        <v>2.93897664818588e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.16049382716049</v>
       </c>
       <c r="AH14" t="n">
-        <v>560963.2725362408</v>
+        <v>636422.1996380537</v>
       </c>
     </row>
     <row r="15">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>451.2382087412125</v>
+        <v>512.2071963352885</v>
       </c>
       <c r="AB15" t="n">
-        <v>617.4040244245161</v>
+        <v>700.8244830126296</v>
       </c>
       <c r="AC15" t="n">
-        <v>558.4798508654302</v>
+        <v>633.938777967243</v>
       </c>
       <c r="AD15" t="n">
-        <v>451238.2087412125</v>
+        <v>512207.1963352885</v>
       </c>
       <c r="AE15" t="n">
-        <v>617404.0244245161</v>
+        <v>700824.4830126296</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.711406088190695e-06</v>
+        <v>2.944442012772604e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.13734567901235</v>
       </c>
       <c r="AH15" t="n">
-        <v>558479.8508654302</v>
+        <v>633938.777967243</v>
       </c>
     </row>
   </sheetData>
@@ -12870,28 +12870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.5135444939569</v>
+        <v>385.6652806738136</v>
       </c>
       <c r="AB2" t="n">
-        <v>445.3819922206925</v>
+        <v>527.6842513692835</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.8753599807009</v>
+        <v>477.3228070280965</v>
       </c>
       <c r="AD2" t="n">
-        <v>325513.5444939569</v>
+        <v>385665.2806738137</v>
       </c>
       <c r="AE2" t="n">
-        <v>445381.9922206925</v>
+        <v>527684.2513692835</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.865075817914623e-06</v>
+        <v>3.738843591539716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.32947530864197</v>
       </c>
       <c r="AH2" t="n">
-        <v>402875.3599807009</v>
+        <v>477322.8070280965</v>
       </c>
     </row>
     <row r="3">
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>287.2056382759815</v>
+        <v>347.4426258018589</v>
       </c>
       <c r="AB3" t="n">
-        <v>392.9674249077124</v>
+        <v>475.3863287089526</v>
       </c>
       <c r="AC3" t="n">
-        <v>355.4631654077643</v>
+        <v>430.0161247058722</v>
       </c>
       <c r="AD3" t="n">
-        <v>287205.6382759815</v>
+        <v>347442.6258018588</v>
       </c>
       <c r="AE3" t="n">
-        <v>392967.4249077124</v>
+        <v>475386.3287089526</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.977708484341114e-06</v>
+        <v>3.964633835036397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.56944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>355463.1654077643</v>
+        <v>430016.1247058722</v>
       </c>
     </row>
     <row r="4">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>289.2430918118351</v>
+        <v>349.4800793377124</v>
       </c>
       <c r="AB4" t="n">
-        <v>395.7551587215733</v>
+        <v>478.1740625228136</v>
       </c>
       <c r="AC4" t="n">
-        <v>357.9848418190394</v>
+        <v>432.5378011171472</v>
       </c>
       <c r="AD4" t="n">
-        <v>289243.0918118351</v>
+        <v>349480.0793377124</v>
       </c>
       <c r="AE4" t="n">
-        <v>395755.1587215733</v>
+        <v>478174.0625228136</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.977837354668833e-06</v>
+        <v>3.964892176276096e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.56944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>357984.8418190394</v>
+        <v>432537.8011171472</v>
       </c>
     </row>
   </sheetData>
@@ -13379,28 +13379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>790.0724900362287</v>
+        <v>888.044325770235</v>
       </c>
       <c r="AB2" t="n">
-        <v>1081.012036405849</v>
+        <v>1215.061424269462</v>
       </c>
       <c r="AC2" t="n">
-        <v>977.8417648611959</v>
+        <v>1099.097667286604</v>
       </c>
       <c r="AD2" t="n">
-        <v>790072.4900362287</v>
+        <v>888044.325770235</v>
       </c>
       <c r="AE2" t="n">
-        <v>1081012.036405849</v>
+        <v>1215061.424269462</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.208919400511006e-06</v>
+        <v>2.141086089357839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.86265432098766</v>
       </c>
       <c r="AH2" t="n">
-        <v>977841.7648611959</v>
+        <v>1099097.667286604</v>
       </c>
     </row>
     <row r="3">
@@ -13485,28 +13485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>564.6279882851993</v>
+        <v>633.2424991493833</v>
       </c>
       <c r="AB3" t="n">
-        <v>772.5489232006204</v>
+        <v>866.430324023577</v>
       </c>
       <c r="AC3" t="n">
-        <v>698.8179382495761</v>
+        <v>783.7394299413634</v>
       </c>
       <c r="AD3" t="n">
-        <v>564627.9882851993</v>
+        <v>633242.4991493833</v>
       </c>
       <c r="AE3" t="n">
-        <v>772548.9232006203</v>
+        <v>866430.324023577</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.51471773754817e-06</v>
+        <v>2.682677667177067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.25925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>698817.938249576</v>
+        <v>783739.4299413634</v>
       </c>
     </row>
     <row r="4">
@@ -13591,28 +13591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>502.9155632700961</v>
+        <v>571.4447332797085</v>
       </c>
       <c r="AB4" t="n">
-        <v>688.1112607349131</v>
+        <v>781.8758944356724</v>
       </c>
       <c r="AC4" t="n">
-        <v>622.4388877805924</v>
+        <v>707.2547564404412</v>
       </c>
       <c r="AD4" t="n">
-        <v>502915.5632700961</v>
+        <v>571444.7332797085</v>
       </c>
       <c r="AE4" t="n">
-        <v>688111.2607349132</v>
+        <v>781875.8944356724</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.627006125631009e-06</v>
+        <v>2.881548746273785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.2716049382716</v>
       </c>
       <c r="AH4" t="n">
-        <v>622438.8877805924</v>
+        <v>707254.7564404411</v>
       </c>
     </row>
     <row r="5">
@@ -13697,28 +13697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>466.4153805696512</v>
+        <v>535.0298019252843</v>
       </c>
       <c r="AB5" t="n">
-        <v>638.1701004897512</v>
+        <v>732.0513788431597</v>
       </c>
       <c r="AC5" t="n">
-        <v>577.26404177637</v>
+        <v>662.185422686931</v>
       </c>
       <c r="AD5" t="n">
-        <v>466415.3805696513</v>
+        <v>535029.8019252843</v>
       </c>
       <c r="AE5" t="n">
-        <v>638170.1004897512</v>
+        <v>732051.3788431596</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.685445346547502e-06</v>
+        <v>2.985048948954231e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>577264.04177637</v>
+        <v>662185.422686931</v>
       </c>
     </row>
     <row r="6">
@@ -13803,28 +13803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>449.8298926676717</v>
+        <v>518.4443140233046</v>
       </c>
       <c r="AB6" t="n">
-        <v>615.4771042421772</v>
+        <v>709.3583825955857</v>
       </c>
       <c r="AC6" t="n">
-        <v>556.7368332408444</v>
+        <v>641.6582141514052</v>
       </c>
       <c r="AD6" t="n">
-        <v>449829.8926676717</v>
+        <v>518444.3140233046</v>
       </c>
       <c r="AE6" t="n">
-        <v>615477.1042421772</v>
+        <v>709358.3825955857</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.719758797143105e-06</v>
+        <v>3.045820619685182e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.55787037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>556736.8332408443</v>
+        <v>641658.2141514053</v>
       </c>
     </row>
     <row r="7">
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>436.0430855358496</v>
+        <v>494.8433446557188</v>
       </c>
       <c r="AB7" t="n">
-        <v>596.6133864934144</v>
+        <v>677.0664951055704</v>
       </c>
       <c r="AC7" t="n">
-        <v>539.6734422386294</v>
+        <v>612.4482190814882</v>
       </c>
       <c r="AD7" t="n">
-        <v>436043.0855358496</v>
+        <v>494843.3446557188</v>
       </c>
       <c r="AE7" t="n">
-        <v>596613.3864934144</v>
+        <v>677066.4951055704</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.744780187707925e-06</v>
+        <v>3.090135361637442e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.37654320987654</v>
       </c>
       <c r="AH7" t="n">
-        <v>539673.4422386293</v>
+        <v>612448.2190814882</v>
       </c>
     </row>
     <row r="8">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>424.1773916310644</v>
+        <v>482.9776507509335</v>
       </c>
       <c r="AB8" t="n">
-        <v>580.3782206154175</v>
+        <v>660.8313292275735</v>
       </c>
       <c r="AC8" t="n">
-        <v>524.9877378058299</v>
+        <v>597.7625146486887</v>
       </c>
       <c r="AD8" t="n">
-        <v>424177.3916310644</v>
+        <v>482977.6507509335</v>
       </c>
       <c r="AE8" t="n">
-        <v>580378.2206154175</v>
+        <v>660831.3292275735</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.76196490113835e-06</v>
+        <v>3.120570766065503e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.25694444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>524987.7378058298</v>
+        <v>597762.5146486887</v>
       </c>
     </row>
     <row r="9">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>413.2351211804402</v>
+        <v>472.0353803003093</v>
       </c>
       <c r="AB9" t="n">
-        <v>565.4065234459711</v>
+        <v>645.8596320581271</v>
       </c>
       <c r="AC9" t="n">
-        <v>511.4449184013266</v>
+        <v>584.2196952441855</v>
       </c>
       <c r="AD9" t="n">
-        <v>413235.1211804402</v>
+        <v>472035.3803003093</v>
       </c>
       <c r="AE9" t="n">
-        <v>565406.5234459711</v>
+        <v>645859.6320581271</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.77467151334912e-06</v>
+        <v>3.143075120479738e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.16820987654321</v>
       </c>
       <c r="AH9" t="n">
-        <v>511444.9184013266</v>
+        <v>584219.6952441855</v>
       </c>
     </row>
     <row r="10">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>408.110094520597</v>
+        <v>466.9103536404661</v>
       </c>
       <c r="AB10" t="n">
-        <v>558.3942358697548</v>
+        <v>638.8473444819108</v>
       </c>
       <c r="AC10" t="n">
-        <v>505.1018737095769</v>
+        <v>577.8766505524358</v>
       </c>
       <c r="AD10" t="n">
-        <v>408110.094520597</v>
+        <v>466910.3536404661</v>
       </c>
       <c r="AE10" t="n">
-        <v>558394.2358697548</v>
+        <v>638847.3444819108</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.78127671264811e-06</v>
+        <v>3.154773419250134e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.12191358024691</v>
       </c>
       <c r="AH10" t="n">
-        <v>505101.8737095769</v>
+        <v>577876.6505524358</v>
       </c>
     </row>
     <row r="11">
@@ -14333,28 +14333,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>407.2893926117703</v>
+        <v>466.0896517316394</v>
       </c>
       <c r="AB11" t="n">
-        <v>557.2713153112853</v>
+        <v>637.7244239234412</v>
       </c>
       <c r="AC11" t="n">
-        <v>504.0861231131788</v>
+        <v>576.8608999560378</v>
       </c>
       <c r="AD11" t="n">
-        <v>407289.3926117703</v>
+        <v>466089.6517316394</v>
       </c>
       <c r="AE11" t="n">
-        <v>557271.3153112853</v>
+        <v>637724.4239234412</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.780884878791391e-06</v>
+        <v>3.154079452373924e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.12577160493827</v>
       </c>
       <c r="AH11" t="n">
-        <v>504086.1231131788</v>
+        <v>576860.8999560378</v>
       </c>
     </row>
   </sheetData>
@@ -14630,28 +14630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>924.8404107738186</v>
+        <v>1014.860225526801</v>
       </c>
       <c r="AB2" t="n">
-        <v>1265.407451100067</v>
+        <v>1388.576533039036</v>
       </c>
       <c r="AC2" t="n">
-        <v>1144.638739977588</v>
+        <v>1256.052737605195</v>
       </c>
       <c r="AD2" t="n">
-        <v>924840.4107738186</v>
+        <v>1014860.225526801</v>
       </c>
       <c r="AE2" t="n">
-        <v>1265407.451100067</v>
+        <v>1388576.533039036</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.110787690319465e-06</v>
+        <v>1.937116738819818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.04706790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>1144638.739977588</v>
+        <v>1256052.737605195</v>
       </c>
     </row>
     <row r="3">
@@ -14736,28 +14736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>621.8447956854363</v>
+        <v>701.7769883814699</v>
       </c>
       <c r="AB3" t="n">
-        <v>850.8354833130161</v>
+        <v>960.2022357191929</v>
       </c>
       <c r="AC3" t="n">
-        <v>769.6329389407222</v>
+        <v>868.5618819944543</v>
       </c>
       <c r="AD3" t="n">
-        <v>621844.7956854363</v>
+        <v>701776.9883814699</v>
       </c>
       <c r="AE3" t="n">
-        <v>850835.4833130161</v>
+        <v>960202.2357191929</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.43558326144828e-06</v>
+        <v>2.50353185397762e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.73765432098766</v>
       </c>
       <c r="AH3" t="n">
-        <v>769632.9389407221</v>
+        <v>868561.8819944543</v>
       </c>
     </row>
     <row r="4">
@@ -14842,28 +14842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>548.826780480653</v>
+        <v>618.8421223374326</v>
       </c>
       <c r="AB4" t="n">
-        <v>750.9290135823506</v>
+        <v>846.7270931696784</v>
       </c>
       <c r="AC4" t="n">
-        <v>679.2614024615403</v>
+        <v>765.9166477865026</v>
       </c>
       <c r="AD4" t="n">
-        <v>548826.780480653</v>
+        <v>618842.1223374326</v>
       </c>
       <c r="AE4" t="n">
-        <v>750929.0135823507</v>
+        <v>846727.0931696784</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.558053459072501e-06</v>
+        <v>2.717109184634049e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.58024691358025</v>
       </c>
       <c r="AH4" t="n">
-        <v>679261.4024615403</v>
+        <v>765916.6477865026</v>
       </c>
     </row>
     <row r="5">
@@ -14948,28 +14948,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>519.0548329835491</v>
+        <v>579.068072655054</v>
       </c>
       <c r="AB5" t="n">
-        <v>710.193721571188</v>
+        <v>792.3064836870171</v>
       </c>
       <c r="AC5" t="n">
-        <v>642.4138295475815</v>
+        <v>716.6898648930613</v>
       </c>
       <c r="AD5" t="n">
-        <v>519054.8329835491</v>
+        <v>579068.072655054</v>
       </c>
       <c r="AE5" t="n">
-        <v>710193.721571188</v>
+        <v>792306.4836870171</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.620358046847296e-06</v>
+        <v>2.825762945326258e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.05941358024691</v>
       </c>
       <c r="AH5" t="n">
-        <v>642413.8295475815</v>
+        <v>716689.8648930613</v>
       </c>
     </row>
     <row r="6">
@@ -15054,28 +15054,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>490.6631904823093</v>
+        <v>560.5931914845172</v>
       </c>
       <c r="AB6" t="n">
-        <v>671.347023750125</v>
+        <v>767.028336215255</v>
       </c>
       <c r="AC6" t="n">
-        <v>607.2746060448779</v>
+        <v>693.8242283379014</v>
       </c>
       <c r="AD6" t="n">
-        <v>490663.1904823093</v>
+        <v>560593.1914845172</v>
       </c>
       <c r="AE6" t="n">
-        <v>671347.023750125</v>
+        <v>767028.336215255</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.657433664220325e-06</v>
+        <v>2.89041958461141e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.7662037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>607274.6060448779</v>
+        <v>693824.2283379014</v>
       </c>
     </row>
     <row r="7">
@@ -15160,28 +15160,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>476.2535006785981</v>
+        <v>546.1835016808061</v>
       </c>
       <c r="AB7" t="n">
-        <v>651.6310504500393</v>
+        <v>747.3123629151694</v>
       </c>
       <c r="AC7" t="n">
-        <v>589.4402975650103</v>
+        <v>675.9899198580337</v>
       </c>
       <c r="AD7" t="n">
-        <v>476253.5006785981</v>
+        <v>546183.501680806</v>
       </c>
       <c r="AE7" t="n">
-        <v>651631.0504500393</v>
+        <v>747312.3629151693</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.685569450777076e-06</v>
+        <v>2.939485939571889e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.55401234567901</v>
       </c>
       <c r="AH7" t="n">
-        <v>589440.2975650103</v>
+        <v>675989.9198580337</v>
       </c>
     </row>
     <row r="8">
@@ -15266,28 +15266,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>463.7550038023998</v>
+        <v>523.6829026193332</v>
       </c>
       <c r="AB8" t="n">
-        <v>634.5300556292582</v>
+        <v>716.5260506228898</v>
       </c>
       <c r="AC8" t="n">
-        <v>573.9713976885273</v>
+        <v>648.1418100020685</v>
       </c>
       <c r="AD8" t="n">
-        <v>463755.0038023998</v>
+        <v>523682.9026193331</v>
       </c>
       <c r="AE8" t="n">
-        <v>634530.0556292582</v>
+        <v>716526.0506228898</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.703394266821802e-06</v>
+        <v>2.970570862305135e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.42283950617284</v>
       </c>
       <c r="AH8" t="n">
-        <v>573971.3976885274</v>
+        <v>648141.8100020685</v>
       </c>
     </row>
     <row r="9">
@@ -15372,28 +15372,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>452.3004851099758</v>
+        <v>512.228383926909</v>
       </c>
       <c r="AB9" t="n">
-        <v>618.8574778165838</v>
+        <v>700.8534728102154</v>
       </c>
       <c r="AC9" t="n">
-        <v>559.7945887056936</v>
+        <v>633.9650010192348</v>
       </c>
       <c r="AD9" t="n">
-        <v>452300.4851099758</v>
+        <v>512228.3839269091</v>
       </c>
       <c r="AE9" t="n">
-        <v>618857.4778165838</v>
+        <v>700853.4728102154</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.7195188696438e-06</v>
+        <v>2.998690761639211e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.3070987654321</v>
       </c>
       <c r="AH9" t="n">
-        <v>559794.5887056936</v>
+        <v>633965.0010192348</v>
       </c>
     </row>
     <row r="10">
@@ -15478,28 +15478,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>441.5520700608373</v>
+        <v>501.4799688777705</v>
       </c>
       <c r="AB10" t="n">
-        <v>604.1510221597468</v>
+        <v>686.1470171533784</v>
       </c>
       <c r="AC10" t="n">
-        <v>546.491696536105</v>
+        <v>620.6621088496462</v>
       </c>
       <c r="AD10" t="n">
-        <v>441552.0700608373</v>
+        <v>501479.9688777705</v>
       </c>
       <c r="AE10" t="n">
-        <v>604151.0221597468</v>
+        <v>686147.0171533785</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.73355934012826e-06</v>
+        <v>3.023176116161399e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.20679012345679</v>
       </c>
       <c r="AH10" t="n">
-        <v>546491.696536105</v>
+        <v>620662.1088496462</v>
       </c>
     </row>
     <row r="11">
@@ -15584,28 +15584,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>435.083772166704</v>
+        <v>495.0116709836373</v>
       </c>
       <c r="AB11" t="n">
-        <v>595.3008116198306</v>
+        <v>677.2968066134621</v>
       </c>
       <c r="AC11" t="n">
-        <v>538.4861376687699</v>
+        <v>612.6565499823108</v>
       </c>
       <c r="AD11" t="n">
-        <v>435083.772166704</v>
+        <v>495011.6709836373</v>
       </c>
       <c r="AE11" t="n">
-        <v>595300.8116198306</v>
+        <v>677296.806613462</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.739482663613893e-06</v>
+        <v>3.033505875100447e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.16435185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>538486.1376687698</v>
+        <v>612656.5499823109</v>
       </c>
     </row>
     <row r="12">
@@ -15690,28 +15690,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>431.0598743879358</v>
+        <v>490.987773204869</v>
       </c>
       <c r="AB12" t="n">
-        <v>589.7951371570788</v>
+        <v>671.7911321507104</v>
       </c>
       <c r="AC12" t="n">
-        <v>533.5059170494803</v>
+        <v>607.6763293630214</v>
       </c>
       <c r="AD12" t="n">
-        <v>431059.8743879358</v>
+        <v>490987.773204869</v>
       </c>
       <c r="AE12" t="n">
-        <v>589795.1371570788</v>
+        <v>671791.1321507103</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.7415119503636e-06</v>
+        <v>3.037044773996232e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.14891975308642</v>
       </c>
       <c r="AH12" t="n">
-        <v>533505.9170494804</v>
+        <v>607676.3293630214</v>
       </c>
     </row>
     <row r="13">
@@ -15796,28 +15796,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>431.4217423374405</v>
+        <v>491.3496411543738</v>
       </c>
       <c r="AB13" t="n">
-        <v>590.2902608500783</v>
+        <v>672.2862558437099</v>
       </c>
       <c r="AC13" t="n">
-        <v>533.9537868321306</v>
+        <v>608.1241991456717</v>
       </c>
       <c r="AD13" t="n">
-        <v>431421.7423374405</v>
+        <v>491349.6411543738</v>
       </c>
       <c r="AE13" t="n">
-        <v>590290.2608500783</v>
+        <v>672286.2558437099</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.743980001815946e-06</v>
+        <v>3.041348840220835e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.13348765432099</v>
       </c>
       <c r="AH13" t="n">
-        <v>533953.7868321306</v>
+        <v>608124.1991456717</v>
       </c>
     </row>
   </sheetData>
@@ -16093,28 +16093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1220.265221852856</v>
+        <v>1333.976900415199</v>
       </c>
       <c r="AB2" t="n">
-        <v>1669.620710841232</v>
+        <v>1825.206046055434</v>
       </c>
       <c r="AC2" t="n">
-        <v>1510.274453525929</v>
+        <v>1651.010942712677</v>
       </c>
       <c r="AD2" t="n">
-        <v>1220265.221852856</v>
+        <v>1333976.900415199</v>
       </c>
       <c r="AE2" t="n">
-        <v>1669620.710841232</v>
+        <v>1825206.046055434</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.389653469616595e-07</v>
+        <v>1.596178858611839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.75154320987654</v>
       </c>
       <c r="AH2" t="n">
-        <v>1510274.453525929</v>
+        <v>1651010.942712677</v>
       </c>
     </row>
     <row r="3">
@@ -16199,28 +16199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>752.9308117569072</v>
+        <v>835.630214347702</v>
       </c>
       <c r="AB3" t="n">
-        <v>1030.19315360888</v>
+        <v>1143.346124673754</v>
       </c>
       <c r="AC3" t="n">
-        <v>931.8729649136203</v>
+        <v>1034.226775231255</v>
       </c>
       <c r="AD3" t="n">
-        <v>752930.8117569073</v>
+        <v>835630.214347702</v>
       </c>
       <c r="AE3" t="n">
-        <v>1030193.15360888</v>
+        <v>1143346.124673754</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.295504311374287e-06</v>
+        <v>2.202271468001857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.76388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>931872.9649136203</v>
+        <v>1034226.775231255</v>
       </c>
     </row>
     <row r="4">
@@ -16305,28 +16305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>654.9022081319318</v>
+        <v>727.1789340528568</v>
       </c>
       <c r="AB4" t="n">
-        <v>896.0660934124203</v>
+        <v>994.9582984415356</v>
       </c>
       <c r="AC4" t="n">
-        <v>810.5468030937989</v>
+        <v>900.0008748710171</v>
       </c>
       <c r="AD4" t="n">
-        <v>654902.2081319318</v>
+        <v>727178.9340528568</v>
       </c>
       <c r="AE4" t="n">
-        <v>896066.0934124202</v>
+        <v>994958.2984415356</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.431661433344484e-06</v>
+        <v>2.433729551350205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.26697530864197</v>
       </c>
       <c r="AH4" t="n">
-        <v>810546.8030937989</v>
+        <v>900000.8748710171</v>
       </c>
     </row>
     <row r="5">
@@ -16411,28 +16411,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>603.4985877943494</v>
+        <v>675.8605650612949</v>
       </c>
       <c r="AB5" t="n">
-        <v>825.7333922988619</v>
+        <v>924.7422419806263</v>
       </c>
       <c r="AC5" t="n">
-        <v>746.9265562619527</v>
+        <v>836.4861402898829</v>
       </c>
       <c r="AD5" t="n">
-        <v>603498.5877943494</v>
+        <v>675860.5650612949</v>
       </c>
       <c r="AE5" t="n">
-        <v>825733.3922988619</v>
+        <v>924742.2419806264</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.505404384707037e-06</v>
+        <v>2.559087681250769e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.56867283950617</v>
       </c>
       <c r="AH5" t="n">
-        <v>746926.5562619526</v>
+        <v>836486.1402898829</v>
       </c>
     </row>
     <row r="6">
@@ -16517,28 +16517,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>580.0925493834434</v>
+        <v>642.1171908350906</v>
       </c>
       <c r="AB6" t="n">
-        <v>793.708217943523</v>
+        <v>878.5730687117266</v>
       </c>
       <c r="AC6" t="n">
-        <v>717.9578195994727</v>
+        <v>794.7232881189251</v>
       </c>
       <c r="AD6" t="n">
-        <v>580092.5493834434</v>
+        <v>642117.1908350906</v>
       </c>
       <c r="AE6" t="n">
-        <v>793708.217943523</v>
+        <v>878573.0687117266</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.549184299119693e-06</v>
+        <v>2.633510634178095e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.18287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>717957.8195994727</v>
+        <v>794723.2881189251</v>
       </c>
     </row>
     <row r="7">
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>550.5970355602155</v>
+        <v>622.8736719725894</v>
       </c>
       <c r="AB7" t="n">
-        <v>753.3511546803503</v>
+        <v>852.2432372399171</v>
       </c>
       <c r="AC7" t="n">
-        <v>681.4523778126431</v>
+        <v>770.9063388086347</v>
       </c>
       <c r="AD7" t="n">
-        <v>550597.0355602156</v>
+        <v>622873.6719725893</v>
       </c>
       <c r="AE7" t="n">
-        <v>753351.1546803503</v>
+        <v>852243.2372399172</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.583647085434856e-06</v>
+        <v>2.692095086845193e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.89737654320988</v>
       </c>
       <c r="AH7" t="n">
-        <v>681452.3778126432</v>
+        <v>770906.3388086347</v>
       </c>
     </row>
     <row r="8">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>537.9395898856059</v>
+        <v>610.2162262979797</v>
       </c>
       <c r="AB8" t="n">
-        <v>736.0326791012565</v>
+        <v>834.9247616608234</v>
       </c>
       <c r="AC8" t="n">
-        <v>665.7867532361851</v>
+        <v>755.2407142321764</v>
       </c>
       <c r="AD8" t="n">
-        <v>537939.5898856058</v>
+        <v>610216.2262979797</v>
       </c>
       <c r="AE8" t="n">
-        <v>736032.6791012564</v>
+        <v>834924.7616608234</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.604928253021177e-06</v>
+        <v>2.728271661303215e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.72762345679012</v>
       </c>
       <c r="AH8" t="n">
-        <v>665786.7532361851</v>
+        <v>755240.7142321764</v>
       </c>
     </row>
     <row r="9">
@@ -16835,28 +16835,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>528.2094423467933</v>
+        <v>600.4860787591671</v>
       </c>
       <c r="AB9" t="n">
-        <v>722.7194619748396</v>
+        <v>821.6115445344064</v>
       </c>
       <c r="AC9" t="n">
-        <v>653.7441308670957</v>
+        <v>743.1980918630871</v>
       </c>
       <c r="AD9" t="n">
-        <v>528209.4423467933</v>
+        <v>600486.0787591671</v>
       </c>
       <c r="AE9" t="n">
-        <v>722719.4619748397</v>
+        <v>821611.5445344064</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.620968536052659e-06</v>
+        <v>2.75553907936486e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.60030864197531</v>
       </c>
       <c r="AH9" t="n">
-        <v>653744.1308670957</v>
+        <v>743198.0918630871</v>
       </c>
     </row>
     <row r="10">
@@ -16941,28 +16941,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>518.0429565700235</v>
+        <v>579.9822571670991</v>
       </c>
       <c r="AB10" t="n">
-        <v>708.8092276213653</v>
+        <v>793.5573112673712</v>
       </c>
       <c r="AC10" t="n">
-        <v>641.1614697571804</v>
+        <v>717.8213152446942</v>
       </c>
       <c r="AD10" t="n">
-        <v>518042.9565700235</v>
+        <v>579982.257167099</v>
       </c>
       <c r="AE10" t="n">
-        <v>708809.2276213652</v>
+        <v>793557.3112673713</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.63367371073106e-06</v>
+        <v>2.777137034265172e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>641161.4697571804</v>
+        <v>717821.3152446942</v>
       </c>
     </row>
     <row r="11">
@@ -17047,28 +17047,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>512.2487297595618</v>
+        <v>574.1880303566375</v>
       </c>
       <c r="AB11" t="n">
-        <v>700.8813108760459</v>
+        <v>785.6293945220518</v>
       </c>
       <c r="AC11" t="n">
-        <v>633.9901822591333</v>
+        <v>710.6500277466469</v>
       </c>
       <c r="AD11" t="n">
-        <v>512248.7297595618</v>
+        <v>574188.0303566374</v>
       </c>
       <c r="AE11" t="n">
-        <v>700881.3108760458</v>
+        <v>785629.3945220518</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.643679035790301e-06</v>
+        <v>2.794145423749169e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.4266975308642</v>
       </c>
       <c r="AH11" t="n">
-        <v>633990.1822591333</v>
+        <v>710650.0277466469</v>
       </c>
     </row>
     <row r="12">
@@ -17153,28 +17153,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>502.6520840175667</v>
+        <v>564.5913846146423</v>
       </c>
       <c r="AB12" t="n">
-        <v>687.7507567977182</v>
+        <v>772.4988404437241</v>
       </c>
       <c r="AC12" t="n">
-        <v>622.1127898331928</v>
+        <v>698.7726353207065</v>
       </c>
       <c r="AD12" t="n">
-        <v>502652.0840175666</v>
+        <v>564591.3846146422</v>
       </c>
       <c r="AE12" t="n">
-        <v>687750.7567977181</v>
+        <v>772498.8404437242</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.654849001861728e-06</v>
+        <v>2.813133625765693e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.34182098765432</v>
       </c>
       <c r="AH12" t="n">
-        <v>622112.7898331928</v>
+        <v>698772.6353207065</v>
       </c>
     </row>
     <row r="13">
@@ -17259,28 +17259,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>495.5214987735624</v>
+        <v>557.4607993706381</v>
       </c>
       <c r="AB13" t="n">
-        <v>677.9943754876524</v>
+        <v>762.7424591336586</v>
       </c>
       <c r="AC13" t="n">
-        <v>613.2875438621926</v>
+        <v>689.9473893497062</v>
       </c>
       <c r="AD13" t="n">
-        <v>495521.4987735624</v>
+        <v>557460.7993706381</v>
       </c>
       <c r="AE13" t="n">
-        <v>677994.3754876524</v>
+        <v>762742.4591336586</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.661678033251369e-06</v>
+        <v>2.824742526524611e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>613287.5438621925</v>
+        <v>689947.3893497062</v>
       </c>
     </row>
     <row r="14">
@@ -17365,28 +17365,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>488.0541213157471</v>
+        <v>549.9934219128228</v>
       </c>
       <c r="AB14" t="n">
-        <v>667.7771802124266</v>
+        <v>752.5252638584327</v>
       </c>
       <c r="AC14" t="n">
-        <v>604.0454633641107</v>
+        <v>680.7053088516244</v>
       </c>
       <c r="AD14" t="n">
-        <v>488054.1213157471</v>
+        <v>549993.4219128228</v>
       </c>
       <c r="AE14" t="n">
-        <v>667777.1802124266</v>
+        <v>752525.2638584328</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.668083558818396e-06</v>
+        <v>2.835631495453518e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.24537037037037</v>
       </c>
       <c r="AH14" t="n">
-        <v>604045.4633641107</v>
+        <v>680705.3088516244</v>
       </c>
     </row>
     <row r="15">
@@ -17471,28 +17471,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>480.189529473492</v>
+        <v>542.1288300705676</v>
       </c>
       <c r="AB15" t="n">
-        <v>657.0164986925485</v>
+        <v>741.7645823385544</v>
       </c>
       <c r="AC15" t="n">
-        <v>594.3117661857783</v>
+        <v>670.971611673292</v>
       </c>
       <c r="AD15" t="n">
-        <v>480189.529473492</v>
+        <v>542128.8300705676</v>
       </c>
       <c r="AE15" t="n">
-        <v>657016.4986925485</v>
+        <v>741764.5823385544</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.67454202261325e-06</v>
+        <v>2.846610455861177e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.19521604938272</v>
       </c>
       <c r="AH15" t="n">
-        <v>594311.7661857783</v>
+        <v>670971.611673292</v>
       </c>
     </row>
     <row r="16">
@@ -17577,28 +17577,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>477.6622226720752</v>
+        <v>539.6015232691507</v>
       </c>
       <c r="AB16" t="n">
-        <v>653.5585260299429</v>
+        <v>738.3066096759488</v>
       </c>
       <c r="AC16" t="n">
-        <v>591.1838175807967</v>
+        <v>667.8436630683103</v>
       </c>
       <c r="AD16" t="n">
-        <v>477662.2226720752</v>
+        <v>539601.5232691506</v>
       </c>
       <c r="AE16" t="n">
-        <v>653558.5260299429</v>
+        <v>738306.6096759489</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.67787713096633e-06</v>
+        <v>2.852279919022509e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.17206790123457</v>
       </c>
       <c r="AH16" t="n">
-        <v>591183.8175807967</v>
+        <v>667843.6630683104</v>
       </c>
     </row>
     <row r="17">
@@ -17683,28 +17683,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>474.0983099144113</v>
+        <v>536.0376105114868</v>
       </c>
       <c r="AB17" t="n">
-        <v>648.6822233661729</v>
+        <v>733.430307012179</v>
       </c>
       <c r="AC17" t="n">
-        <v>586.7729023993232</v>
+        <v>663.432747886837</v>
       </c>
       <c r="AD17" t="n">
-        <v>474098.3099144113</v>
+        <v>536037.6105114869</v>
       </c>
       <c r="AE17" t="n">
-        <v>648682.223366173</v>
+        <v>733430.3070121791</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.677612439827197e-06</v>
+        <v>2.851829961628754e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.17592592592593</v>
       </c>
       <c r="AH17" t="n">
-        <v>586772.9023993233</v>
+        <v>663432.747886837</v>
       </c>
     </row>
     <row r="18">
@@ -17789,28 +17789,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>474.03084685383</v>
+        <v>535.9701474509056</v>
       </c>
       <c r="AB18" t="n">
-        <v>648.5899174304255</v>
+        <v>733.3380010764315</v>
       </c>
       <c r="AC18" t="n">
-        <v>586.6894060125312</v>
+        <v>663.3492515000449</v>
       </c>
       <c r="AD18" t="n">
-        <v>474030.84685383</v>
+        <v>535970.1474509056</v>
       </c>
       <c r="AE18" t="n">
-        <v>648589.9174304255</v>
+        <v>733338.0010764315</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.681265177547237e-06</v>
+        <v>2.858039373662593e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.14891975308642</v>
       </c>
       <c r="AH18" t="n">
-        <v>586689.4060125313</v>
+        <v>663349.2515000449</v>
       </c>
     </row>
     <row r="19">
@@ -17895,28 +17895,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>475.7672423108833</v>
+        <v>537.7065429079588</v>
       </c>
       <c r="AB19" t="n">
-        <v>650.9657302991268</v>
+        <v>735.7138139451329</v>
       </c>
       <c r="AC19" t="n">
-        <v>588.8384746355182</v>
+        <v>665.4983201230317</v>
       </c>
       <c r="AD19" t="n">
-        <v>475767.2423108833</v>
+        <v>537706.5429079589</v>
       </c>
       <c r="AE19" t="n">
-        <v>650965.7302991268</v>
+        <v>735713.8139451329</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.681000486408104e-06</v>
+        <v>2.857589416268837e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.14891975308642</v>
       </c>
       <c r="AH19" t="n">
-        <v>588838.4746355182</v>
+        <v>665498.3201230317</v>
       </c>
     </row>
   </sheetData>
@@ -18192,28 +18192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>677.0860526403414</v>
+        <v>763.4740290361557</v>
       </c>
       <c r="AB2" t="n">
-        <v>926.419008150974</v>
+        <v>1044.618848624267</v>
       </c>
       <c r="AC2" t="n">
-        <v>838.0028782502884</v>
+        <v>944.9218918433284</v>
       </c>
       <c r="AD2" t="n">
-        <v>677086.0526403415</v>
+        <v>763474.0290361557</v>
       </c>
       <c r="AE2" t="n">
-        <v>926419.0081509741</v>
+        <v>1044618.848624267</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.317177217070522e-06</v>
+        <v>2.375182219119018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.77469135802469</v>
       </c>
       <c r="AH2" t="n">
-        <v>838002.8782502884</v>
+        <v>944921.8918433284</v>
       </c>
     </row>
     <row r="3">
@@ -18298,28 +18298,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>497.7846659296614</v>
+        <v>565.0416904577394</v>
       </c>
       <c r="AB3" t="n">
-        <v>681.0909406345154</v>
+        <v>773.1149687643413</v>
       </c>
       <c r="AC3" t="n">
-        <v>616.0885771774954</v>
+        <v>699.3299612191455</v>
       </c>
       <c r="AD3" t="n">
-        <v>497784.6659296614</v>
+        <v>565041.6904577394</v>
       </c>
       <c r="AE3" t="n">
-        <v>681090.9406345154</v>
+        <v>773114.9687643412</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.602501661413552e-06</v>
+        <v>2.889689711429595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.78858024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>616088.5771774953</v>
+        <v>699329.9612191455</v>
       </c>
     </row>
     <row r="4">
@@ -18404,28 +18404,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>446.1334531772014</v>
+        <v>513.3051368507079</v>
       </c>
       <c r="AB4" t="n">
-        <v>610.419472655915</v>
+        <v>702.3267336635431</v>
       </c>
       <c r="AC4" t="n">
-        <v>552.1618949147442</v>
+        <v>635.2976559244555</v>
       </c>
       <c r="AD4" t="n">
-        <v>446133.4531772014</v>
+        <v>513305.1368507078</v>
       </c>
       <c r="AE4" t="n">
-        <v>610419.472655915</v>
+        <v>702326.7336635431</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.703298735288247e-06</v>
+        <v>3.071450688239434e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.97067901234568</v>
       </c>
       <c r="AH4" t="n">
-        <v>552161.8949147442</v>
+        <v>635297.6559244555</v>
       </c>
     </row>
     <row r="5">
@@ -18510,28 +18510,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>423.5662485886687</v>
+        <v>490.737932262175</v>
       </c>
       <c r="AB5" t="n">
-        <v>579.5420277430835</v>
+        <v>671.4492887507118</v>
       </c>
       <c r="AC5" t="n">
-        <v>524.2313500076274</v>
+        <v>607.3671110173387</v>
       </c>
       <c r="AD5" t="n">
-        <v>423566.2485886686</v>
+        <v>490737.932262175</v>
       </c>
       <c r="AE5" t="n">
-        <v>579542.0277430835</v>
+        <v>671449.2887507118</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.754384525002013e-06</v>
+        <v>3.163570456031692e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.59259259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>524231.3500076274</v>
+        <v>607367.1110173387</v>
       </c>
     </row>
     <row r="6">
@@ -18616,28 +18616,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>406.9591387352994</v>
+        <v>464.5227655562027</v>
       </c>
       <c r="AB6" t="n">
-        <v>556.8194473877251</v>
+        <v>635.5805411320695</v>
       </c>
       <c r="AC6" t="n">
-        <v>503.6773808300425</v>
+        <v>574.921626329316</v>
       </c>
       <c r="AD6" t="n">
-        <v>406959.1387352994</v>
+        <v>464522.7655562027</v>
       </c>
       <c r="AE6" t="n">
-        <v>556819.4473877251</v>
+        <v>635580.5411320694</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.787888097852409e-06</v>
+        <v>3.223985326164508e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.35725308641975</v>
       </c>
       <c r="AH6" t="n">
-        <v>503677.3808300425</v>
+        <v>574921.6263293161</v>
       </c>
     </row>
     <row r="7">
@@ -18722,28 +18722,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>390.3498029383238</v>
+        <v>447.9134297592272</v>
       </c>
       <c r="AB7" t="n">
-        <v>534.0938213981227</v>
+        <v>612.8549151424672</v>
       </c>
       <c r="AC7" t="n">
-        <v>483.1206566892715</v>
+        <v>554.364902188545</v>
       </c>
       <c r="AD7" t="n">
-        <v>390349.8029383238</v>
+        <v>447913.4297592272</v>
       </c>
       <c r="AE7" t="n">
-        <v>534093.8213981227</v>
+        <v>612854.9151424672</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.810510168409514e-06</v>
+        <v>3.264778272664444e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.20293209876543</v>
       </c>
       <c r="AH7" t="n">
-        <v>483120.6566892714</v>
+        <v>554364.902188545</v>
       </c>
     </row>
     <row r="8">
@@ -18828,28 +18828,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>384.5760783826173</v>
+        <v>442.1397052035207</v>
       </c>
       <c r="AB8" t="n">
-        <v>526.193956742255</v>
+        <v>604.9550504865994</v>
       </c>
       <c r="AC8" t="n">
-        <v>475.97474402863</v>
+        <v>547.2189895279035</v>
       </c>
       <c r="AD8" t="n">
-        <v>384576.0783826173</v>
+        <v>442139.7052035207</v>
       </c>
       <c r="AE8" t="n">
-        <v>526193.9567422549</v>
+        <v>604955.0504865993</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.818929014920639e-06</v>
+        <v>3.279959445159356e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.14891975308642</v>
       </c>
       <c r="AH8" t="n">
-        <v>475974.74402863</v>
+        <v>547218.9895279035</v>
       </c>
     </row>
     <row r="9">
@@ -18934,28 +18934,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>385.2547940955709</v>
+        <v>442.8184209164743</v>
       </c>
       <c r="AB9" t="n">
-        <v>527.1226055235421</v>
+        <v>605.8836992678864</v>
       </c>
       <c r="AC9" t="n">
-        <v>476.8147638735978</v>
+        <v>548.0590093728714</v>
       </c>
       <c r="AD9" t="n">
-        <v>385254.7940955709</v>
+        <v>442818.4209164743</v>
       </c>
       <c r="AE9" t="n">
-        <v>527122.6055235422</v>
+        <v>605883.6992678865</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.82156348389691e-06</v>
+        <v>3.284710016144159e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.12962962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>476814.7638735978</v>
+        <v>548059.0093728714</v>
       </c>
     </row>
   </sheetData>
@@ -19231,28 +19231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.9187902904098</v>
+        <v>600.7619620856276</v>
       </c>
       <c r="AB2" t="n">
-        <v>720.9535348917458</v>
+        <v>821.989020272783</v>
       </c>
       <c r="AC2" t="n">
-        <v>652.1467413863181</v>
+        <v>743.5395418467835</v>
       </c>
       <c r="AD2" t="n">
-        <v>526918.7902904098</v>
+        <v>600761.9620856276</v>
       </c>
       <c r="AE2" t="n">
-        <v>720953.5348917458</v>
+        <v>821989.020272783</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.50706687547969e-06</v>
+        <v>2.81170506666284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.27391975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>652146.7413863181</v>
+        <v>743539.5418467836</v>
       </c>
     </row>
     <row r="3">
@@ -19337,28 +19337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.9352599114052</v>
+        <v>468.4456724168137</v>
       </c>
       <c r="AB3" t="n">
-        <v>564.996240028732</v>
+        <v>640.9480353651936</v>
       </c>
       <c r="AC3" t="n">
-        <v>511.0737918575923</v>
+        <v>579.7768544461563</v>
       </c>
       <c r="AD3" t="n">
-        <v>412935.2599114052</v>
+        <v>468445.6724168137</v>
       </c>
       <c r="AE3" t="n">
-        <v>564996.240028732</v>
+        <v>640948.0353651936</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.751065906463458e-06</v>
+        <v>3.266929265960245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.14429012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>511073.7918575923</v>
+        <v>579776.8544461563</v>
       </c>
     </row>
     <row r="4">
@@ -19443,28 +19443,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>371.5784508915306</v>
+        <v>436.2551535332926</v>
       </c>
       <c r="AB4" t="n">
-        <v>508.4100293940946</v>
+        <v>596.9035472832958</v>
       </c>
       <c r="AC4" t="n">
-        <v>459.8880897466793</v>
+        <v>539.9359104899676</v>
       </c>
       <c r="AD4" t="n">
-        <v>371578.4508915306</v>
+        <v>436255.1535332926</v>
       </c>
       <c r="AE4" t="n">
-        <v>508410.0293940947</v>
+        <v>596903.5472832958</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.834765329561312e-06</v>
+        <v>3.423085635548082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.54243827160494</v>
       </c>
       <c r="AH4" t="n">
-        <v>459888.0897466794</v>
+        <v>539935.9104899676</v>
       </c>
     </row>
     <row r="5">
@@ -19549,28 +19549,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>351.4440791712161</v>
+        <v>406.869150822053</v>
       </c>
       <c r="AB5" t="n">
-        <v>480.8612937405708</v>
+        <v>556.6963219548347</v>
       </c>
       <c r="AC5" t="n">
-        <v>434.9685667590345</v>
+        <v>503.5660063156597</v>
       </c>
       <c r="AD5" t="n">
-        <v>351444.0791712161</v>
+        <v>406869.150822053</v>
       </c>
       <c r="AE5" t="n">
-        <v>480861.2937405708</v>
+        <v>556696.3219548347</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.878852196039797e-06</v>
+        <v>3.505337636350229e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.24922839506173</v>
       </c>
       <c r="AH5" t="n">
-        <v>434968.5667590345</v>
+        <v>503566.0063156597</v>
       </c>
     </row>
     <row r="6">
@@ -19655,28 +19655,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>348.388458679357</v>
+        <v>403.813530330194</v>
       </c>
       <c r="AB6" t="n">
-        <v>476.6804589791473</v>
+        <v>552.5154871934112</v>
       </c>
       <c r="AC6" t="n">
-        <v>431.1867449994027</v>
+        <v>499.7841845560279</v>
       </c>
       <c r="AD6" t="n">
-        <v>348388.458679357</v>
+        <v>403813.530330194</v>
       </c>
       <c r="AE6" t="n">
-        <v>476680.4589791473</v>
+        <v>552515.4871934112</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.885772461955229e-06</v>
+        <v>3.518248640535681e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.20679012345679</v>
       </c>
       <c r="AH6" t="n">
-        <v>431186.7449994027</v>
+        <v>499784.1845560279</v>
       </c>
     </row>
     <row r="7">
@@ -19761,28 +19761,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>350.2116008475653</v>
+        <v>405.6366724984021</v>
       </c>
       <c r="AB7" t="n">
-        <v>479.1749625250455</v>
+        <v>555.0099907393095</v>
       </c>
       <c r="AC7" t="n">
-        <v>433.4431766279382</v>
+        <v>502.0406161845635</v>
       </c>
       <c r="AD7" t="n">
-        <v>350211.6008475653</v>
+        <v>405636.6724984021</v>
       </c>
       <c r="AE7" t="n">
-        <v>479174.9625250456</v>
+        <v>555009.9907393095</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.885593489560865e-06</v>
+        <v>3.517914735255023e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.20679012345679</v>
       </c>
       <c r="AH7" t="n">
-        <v>433443.1766279382</v>
+        <v>502040.6161845635</v>
       </c>
     </row>
   </sheetData>
@@ -36703,28 +36703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>428.1957353186075</v>
+        <v>490.8782424980358</v>
       </c>
       <c r="AB2" t="n">
-        <v>585.8762957255259</v>
+        <v>671.6412674054673</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.9610843440264</v>
+        <v>607.540767498728</v>
       </c>
       <c r="AD2" t="n">
-        <v>428195.7353186075</v>
+        <v>490878.2424980358</v>
       </c>
       <c r="AE2" t="n">
-        <v>585876.2957255259</v>
+        <v>671641.2674054672</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.662607256088073e-06</v>
+        <v>3.197255408932701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.32098765432099</v>
       </c>
       <c r="AH2" t="n">
-        <v>529961.0843440264</v>
+        <v>607540.767498728</v>
       </c>
     </row>
     <row r="3">
@@ -36809,28 +36809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>342.098603400682</v>
+        <v>404.7810210715592</v>
       </c>
       <c r="AB3" t="n">
-        <v>468.0744014980333</v>
+        <v>553.8392507084263</v>
       </c>
       <c r="AC3" t="n">
-        <v>423.4020375656087</v>
+        <v>500.9816099390837</v>
       </c>
       <c r="AD3" t="n">
-        <v>342098.603400682</v>
+        <v>404781.0210715592</v>
       </c>
       <c r="AE3" t="n">
-        <v>468074.4014980333</v>
+        <v>553839.2507084263</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.874591069779566e-06</v>
+        <v>3.604908143786041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.70061728395062</v>
       </c>
       <c r="AH3" t="n">
-        <v>423402.0375656087</v>
+        <v>500981.6099390837</v>
       </c>
     </row>
     <row r="4">
@@ -36915,28 +36915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>320.3072776433761</v>
+        <v>374.0229621763118</v>
       </c>
       <c r="AB4" t="n">
-        <v>438.2585482314447</v>
+        <v>511.7547175781589</v>
       </c>
       <c r="AC4" t="n">
-        <v>396.4317674879705</v>
+        <v>462.9135655847558</v>
       </c>
       <c r="AD4" t="n">
-        <v>320307.2776433761</v>
+        <v>374022.9621763118</v>
       </c>
       <c r="AE4" t="n">
-        <v>438258.5482314447</v>
+        <v>511754.7175781589</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.932477770578001e-06</v>
+        <v>3.716226416069137e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.31867283950617</v>
       </c>
       <c r="AH4" t="n">
-        <v>396431.7674879705</v>
+        <v>462913.5655847558</v>
       </c>
     </row>
     <row r="5">
@@ -37021,28 +37021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>321.152730917028</v>
+        <v>374.8684154499637</v>
       </c>
       <c r="AB5" t="n">
-        <v>439.4153346992214</v>
+        <v>512.9115040459355</v>
       </c>
       <c r="AC5" t="n">
-        <v>397.4781518788226</v>
+        <v>463.9599499756079</v>
       </c>
       <c r="AD5" t="n">
-        <v>321152.730917028</v>
+        <v>374868.4154499637</v>
       </c>
       <c r="AE5" t="n">
-        <v>439415.3346992214</v>
+        <v>512911.5040459355</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.933773741491398e-06</v>
+        <v>3.718718616194878e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.31095679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>397478.1518788226</v>
+        <v>463959.9499756079</v>
       </c>
     </row>
   </sheetData>
@@ -37318,28 +37318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.5329024282959</v>
+        <v>328.2620288244427</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.7868080548293</v>
+        <v>449.1425897362341</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.5903126896115</v>
+        <v>406.277051347391</v>
       </c>
       <c r="AD2" t="n">
-        <v>269532.9024282959</v>
+        <v>328262.0288244426</v>
       </c>
       <c r="AE2" t="n">
-        <v>368786.8080548293</v>
+        <v>449142.589736234</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.971272452744902e-06</v>
+        <v>4.065945223252703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>333590.3126896115</v>
+        <v>406277.051347391</v>
       </c>
     </row>
     <row r="3">
@@ -37424,28 +37424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>268.4909003051911</v>
+        <v>327.2200267013379</v>
       </c>
       <c r="AB3" t="n">
-        <v>367.3610947801081</v>
+        <v>447.7168764615129</v>
       </c>
       <c r="AC3" t="n">
-        <v>332.3006674888286</v>
+        <v>404.9874061466081</v>
       </c>
       <c r="AD3" t="n">
-        <v>268490.9003051911</v>
+        <v>327220.0267013379</v>
       </c>
       <c r="AE3" t="n">
-        <v>367361.0947801081</v>
+        <v>447716.8764615129</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.984122385738837e-06</v>
+        <v>4.09244948632555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.87808641975309</v>
       </c>
       <c r="AH3" t="n">
-        <v>332300.6674888286</v>
+        <v>404987.4061466081</v>
       </c>
     </row>
   </sheetData>
@@ -37721,28 +37721,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>856.4299923297805</v>
+        <v>945.5367747154465</v>
       </c>
       <c r="AB2" t="n">
-        <v>1171.805298530276</v>
+        <v>1293.725129304139</v>
       </c>
       <c r="AC2" t="n">
-        <v>1059.969845477611</v>
+        <v>1170.253818717974</v>
       </c>
       <c r="AD2" t="n">
-        <v>856429.9923297805</v>
+        <v>945536.7747154465</v>
       </c>
       <c r="AE2" t="n">
-        <v>1171805.298530276</v>
+        <v>1293725.129304138</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.158048243866364e-06</v>
+        <v>2.034645082045796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.45293209876543</v>
       </c>
       <c r="AH2" t="n">
-        <v>1059969.845477611</v>
+        <v>1170253.818717974</v>
       </c>
     </row>
     <row r="3">
@@ -37827,28 +37827,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>593.798936366226</v>
+        <v>663.2558590121093</v>
       </c>
       <c r="AB3" t="n">
-        <v>812.4619012964833</v>
+        <v>907.495927083746</v>
       </c>
       <c r="AC3" t="n">
-        <v>734.9216777341866</v>
+        <v>820.8857894814056</v>
       </c>
       <c r="AD3" t="n">
-        <v>593798.9363662261</v>
+        <v>663255.8590121093</v>
       </c>
       <c r="AE3" t="n">
-        <v>812461.9012964834</v>
+        <v>907495.9270837459</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.472902650167733e-06</v>
+        <v>2.587831853611294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.51003086419753</v>
       </c>
       <c r="AH3" t="n">
-        <v>734921.6777341865</v>
+        <v>820885.7894814056</v>
       </c>
     </row>
     <row r="4">
@@ -37933,28 +37933,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>526.1740737692098</v>
+        <v>595.3750633599293</v>
       </c>
       <c r="AB4" t="n">
-        <v>719.9345808928657</v>
+        <v>814.6184277830837</v>
       </c>
       <c r="AC4" t="n">
-        <v>651.2250349269801</v>
+        <v>736.8723883596095</v>
       </c>
       <c r="AD4" t="n">
-        <v>526174.0737692098</v>
+        <v>595375.0633599292</v>
       </c>
       <c r="AE4" t="n">
-        <v>719934.5808928657</v>
+        <v>814618.4277830836</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.591720859442264e-06</v>
+        <v>2.796590760192574e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.42592592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>651225.0349269802</v>
+        <v>736872.3883596095</v>
       </c>
     </row>
     <row r="5">
@@ -38039,28 +38039,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>488.6518414095642</v>
+        <v>557.9380823463042</v>
       </c>
       <c r="AB5" t="n">
-        <v>668.5950072143364</v>
+        <v>763.3954987572037</v>
       </c>
       <c r="AC5" t="n">
-        <v>604.7852381047857</v>
+        <v>690.5381037881272</v>
       </c>
       <c r="AD5" t="n">
-        <v>488651.8414095641</v>
+        <v>557938.0823463042</v>
       </c>
       <c r="AE5" t="n">
-        <v>668595.0072143364</v>
+        <v>763395.4987572037</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.650880695109024e-06</v>
+        <v>2.900532257735141e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.94367283950617</v>
       </c>
       <c r="AH5" t="n">
-        <v>604785.2381047857</v>
+        <v>690538.1037881272</v>
       </c>
     </row>
     <row r="6">
@@ -38145,28 +38145,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>469.6306637247747</v>
+        <v>538.9169046615148</v>
       </c>
       <c r="AB6" t="n">
-        <v>642.5693927508727</v>
+        <v>737.3698842937399</v>
       </c>
       <c r="AC6" t="n">
-        <v>581.2434717585356</v>
+        <v>666.9963374418771</v>
       </c>
       <c r="AD6" t="n">
-        <v>469630.6637247747</v>
+        <v>538916.9046615148</v>
       </c>
       <c r="AE6" t="n">
-        <v>642569.3927508726</v>
+        <v>737369.8842937399</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.69015440623986e-06</v>
+        <v>2.969534618931472e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.64274691358025</v>
       </c>
       <c r="AH6" t="n">
-        <v>581243.4717585356</v>
+        <v>666996.3374418771</v>
       </c>
     </row>
     <row r="7">
@@ -38251,28 +38251,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>456.599402729839</v>
+        <v>515.9755072049428</v>
       </c>
       <c r="AB7" t="n">
-        <v>624.7394465589409</v>
+        <v>705.9804521906329</v>
       </c>
       <c r="AC7" t="n">
-        <v>565.1151906066751</v>
+        <v>638.602668683346</v>
       </c>
       <c r="AD7" t="n">
-        <v>456599.402729839</v>
+        <v>515975.5072049428</v>
       </c>
       <c r="AE7" t="n">
-        <v>624739.4465589409</v>
+        <v>705980.4521906329</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.713751868781095e-06</v>
+        <v>3.010994429749012e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.46913580246914</v>
       </c>
       <c r="AH7" t="n">
-        <v>565115.1906066751</v>
+        <v>638602.668683346</v>
       </c>
     </row>
     <row r="8">
@@ -38357,28 +38357,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>443.8675960032067</v>
+        <v>503.2437004783105</v>
       </c>
       <c r="AB8" t="n">
-        <v>607.3192269078918</v>
+        <v>688.5602325395839</v>
       </c>
       <c r="AC8" t="n">
-        <v>549.3575322696903</v>
+        <v>622.8450103463612</v>
       </c>
       <c r="AD8" t="n">
-        <v>443867.5960032067</v>
+        <v>503243.7004783105</v>
       </c>
       <c r="AE8" t="n">
-        <v>607319.2269078918</v>
+        <v>688560.2325395839</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.731533055343857e-06</v>
+        <v>3.042235273111525e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.34182098765432</v>
       </c>
       <c r="AH8" t="n">
-        <v>549357.5322696903</v>
+        <v>622845.0103463612</v>
       </c>
     </row>
     <row r="9">
@@ -38463,28 +38463,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>432.0070426163639</v>
+        <v>491.3831470914678</v>
       </c>
       <c r="AB9" t="n">
-        <v>591.0910945133273</v>
+        <v>672.3321001450195</v>
       </c>
       <c r="AC9" t="n">
-        <v>534.6781900545362</v>
+        <v>608.1656681312071</v>
       </c>
       <c r="AD9" t="n">
-        <v>432007.042616364</v>
+        <v>491383.1470914677</v>
       </c>
       <c r="AE9" t="n">
-        <v>591091.0945133273</v>
+        <v>672332.1001450195</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.748261772920038e-06</v>
+        <v>3.071626969982176e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>534678.1900545362</v>
+        <v>608165.6681312071</v>
       </c>
     </row>
     <row r="10">
@@ -38569,28 +38569,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>423.065501205738</v>
+        <v>482.4416056808418</v>
       </c>
       <c r="AB10" t="n">
-        <v>578.8568830823423</v>
+        <v>660.0978887140343</v>
       </c>
       <c r="AC10" t="n">
-        <v>523.6115945917009</v>
+        <v>597.0990726683718</v>
       </c>
       <c r="AD10" t="n">
-        <v>423065.5012057381</v>
+        <v>482441.6056808418</v>
       </c>
       <c r="AE10" t="n">
-        <v>578856.8830823423</v>
+        <v>660097.8887140343</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.758177138635722e-06</v>
+        <v>3.089047876405509e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.15663580246914</v>
       </c>
       <c r="AH10" t="n">
-        <v>523611.5945917008</v>
+        <v>597099.0726683718</v>
       </c>
     </row>
     <row r="11">
@@ -38675,28 +38675,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>418.8619503646557</v>
+        <v>478.2380548397595</v>
       </c>
       <c r="AB11" t="n">
-        <v>573.1053993739986</v>
+        <v>654.3464050056906</v>
       </c>
       <c r="AC11" t="n">
-        <v>518.4090244162234</v>
+        <v>591.8965024928943</v>
       </c>
       <c r="AD11" t="n">
-        <v>418861.9503646557</v>
+        <v>478238.0548397595</v>
       </c>
       <c r="AE11" t="n">
-        <v>573105.3993739986</v>
+        <v>654346.4050056906</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.759340393831416e-06</v>
+        <v>3.091091669896514e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.14891975308642</v>
       </c>
       <c r="AH11" t="n">
-        <v>518409.0244162234</v>
+        <v>591896.5024928943</v>
       </c>
     </row>
     <row r="12">
@@ -38781,28 +38781,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>419.1622412431297</v>
+        <v>478.5383457182335</v>
       </c>
       <c r="AB12" t="n">
-        <v>573.5162706018253</v>
+        <v>654.7572762335175</v>
       </c>
       <c r="AC12" t="n">
-        <v>518.7806826707277</v>
+        <v>592.2681607473986</v>
       </c>
       <c r="AD12" t="n">
-        <v>419162.2412431297</v>
+        <v>478538.3457182335</v>
       </c>
       <c r="AE12" t="n">
-        <v>573516.2706018253</v>
+        <v>654757.2762335174</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.763993414614195e-06</v>
+        <v>3.099266843860537e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.1141975308642</v>
       </c>
       <c r="AH12" t="n">
-        <v>518780.6826707277</v>
+        <v>592268.1607473986</v>
       </c>
     </row>
     <row r="13">
@@ -38887,28 +38887,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>420.6751477677533</v>
+        <v>480.0512522428571</v>
       </c>
       <c r="AB13" t="n">
-        <v>575.5862960535408</v>
+        <v>656.8273016852328</v>
       </c>
       <c r="AC13" t="n">
-        <v>520.6531477986302</v>
+        <v>594.1406258753012</v>
       </c>
       <c r="AD13" t="n">
-        <v>420675.1477677533</v>
+        <v>480051.2522428571</v>
       </c>
       <c r="AE13" t="n">
-        <v>575586.2960535408</v>
+        <v>656827.3016852328</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.763938021509638e-06</v>
+        <v>3.099169520360965e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.1141975308642</v>
       </c>
       <c r="AH13" t="n">
-        <v>520653.1477986303</v>
+        <v>594140.6258753012</v>
       </c>
     </row>
   </sheetData>
@@ -39184,28 +39184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1144.960631033623</v>
+        <v>1247.539788266329</v>
       </c>
       <c r="AB2" t="n">
-        <v>1566.585647478279</v>
+        <v>1706.938975877093</v>
       </c>
       <c r="AC2" t="n">
-        <v>1417.072911999717</v>
+        <v>1544.031115723282</v>
       </c>
       <c r="AD2" t="n">
-        <v>1144960.631033623</v>
+        <v>1247539.788266329</v>
       </c>
       <c r="AE2" t="n">
-        <v>1566585.647478279</v>
+        <v>1706938.975877093</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.792830297040642e-07</v>
+        <v>1.674464847147225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.0300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1417072.911999717</v>
+        <v>1544031.115723282</v>
       </c>
     </row>
     <row r="3">
@@ -39290,28 +39290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>723.3644963460572</v>
+        <v>805.4277505253818</v>
       </c>
       <c r="AB3" t="n">
-        <v>989.7392164899776</v>
+        <v>1102.02178123339</v>
       </c>
       <c r="AC3" t="n">
-        <v>895.2798947758882</v>
+        <v>996.8463691297593</v>
       </c>
       <c r="AD3" t="n">
-        <v>723364.4963460572</v>
+        <v>805427.7505253819</v>
       </c>
       <c r="AE3" t="n">
-        <v>989739.2164899776</v>
+        <v>1102021.78123339</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.326990958162163e-06</v>
+        <v>2.269006655406085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>895279.8947758882</v>
+        <v>996846.3691297593</v>
       </c>
     </row>
     <row r="4">
@@ -39396,28 +39396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>629.5666207527888</v>
+        <v>701.2867168136772</v>
       </c>
       <c r="AB4" t="n">
-        <v>861.400825033047</v>
+        <v>959.5314245308839</v>
       </c>
       <c r="AC4" t="n">
-        <v>779.1899392755435</v>
+        <v>867.9550920844681</v>
       </c>
       <c r="AD4" t="n">
-        <v>629566.6207527888</v>
+        <v>701286.7168136772</v>
       </c>
       <c r="AE4" t="n">
-        <v>861400.825033047</v>
+        <v>959531.4245308839</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.462999524590047e-06</v>
+        <v>2.501566146877312e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.07793209876543</v>
       </c>
       <c r="AH4" t="n">
-        <v>779189.9392755434</v>
+        <v>867955.0920844681</v>
       </c>
     </row>
     <row r="5">
@@ -39502,28 +39502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>581.8288685022935</v>
+        <v>653.4636237086103</v>
       </c>
       <c r="AB5" t="n">
-        <v>796.0839263629268</v>
+        <v>894.097758738566</v>
       </c>
       <c r="AC5" t="n">
-        <v>720.1067937416565</v>
+        <v>808.7663235186424</v>
       </c>
       <c r="AD5" t="n">
-        <v>581828.8685022935</v>
+        <v>653463.6237086103</v>
       </c>
       <c r="AE5" t="n">
-        <v>796083.9263629268</v>
+        <v>894097.758738566</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.533352464367107e-06</v>
+        <v>2.621861833595945e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.42978395061728</v>
       </c>
       <c r="AH5" t="n">
-        <v>720106.7937416565</v>
+        <v>808766.3235186423</v>
       </c>
     </row>
     <row r="6">
@@ -39608,28 +39608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>558.9456978832769</v>
+        <v>620.4932280263213</v>
       </c>
       <c r="AB6" t="n">
-        <v>764.77416278775</v>
+        <v>848.9862088148579</v>
       </c>
       <c r="AC6" t="n">
-        <v>691.7851900585653</v>
+        <v>767.9601566051949</v>
       </c>
       <c r="AD6" t="n">
-        <v>558945.697883277</v>
+        <v>620493.2280263213</v>
       </c>
       <c r="AE6" t="n">
-        <v>764774.16278775</v>
+        <v>848986.208814858</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.57765666771685e-06</v>
+        <v>2.697617083957451e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.0516975308642</v>
       </c>
       <c r="AH6" t="n">
-        <v>691785.1900585652</v>
+        <v>767960.1566051949</v>
       </c>
     </row>
     <row r="7">
@@ -39714,28 +39714,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>533.4152686735788</v>
+        <v>605.135275225916</v>
       </c>
       <c r="AB7" t="n">
-        <v>729.8423032199961</v>
+        <v>827.9727802482846</v>
       </c>
       <c r="AC7" t="n">
-        <v>660.1871781407849</v>
+        <v>748.9522201684832</v>
       </c>
       <c r="AD7" t="n">
-        <v>533415.2686735787</v>
+        <v>605135.2752259159</v>
       </c>
       <c r="AE7" t="n">
-        <v>729842.303219996</v>
+        <v>827972.7802482846</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.604719596750969e-06</v>
+        <v>2.743891676648155e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.83179012345679</v>
       </c>
       <c r="AH7" t="n">
-        <v>660187.178140785</v>
+        <v>748952.2201684832</v>
       </c>
     </row>
     <row r="8">
@@ -39820,28 +39820,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>522.1652607805783</v>
+        <v>593.8852673329156</v>
       </c>
       <c r="AB8" t="n">
-        <v>714.4495461054728</v>
+        <v>812.5800231337613</v>
       </c>
       <c r="AC8" t="n">
-        <v>646.2634841614015</v>
+        <v>735.0285261890998</v>
       </c>
       <c r="AD8" t="n">
-        <v>522165.2607805783</v>
+        <v>593885.2673329157</v>
       </c>
       <c r="AE8" t="n">
-        <v>714449.5461054728</v>
+        <v>812580.0231337612</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.625857505819039e-06</v>
+        <v>2.780035145495331e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.6658950617284</v>
       </c>
       <c r="AH8" t="n">
-        <v>646263.4841614015</v>
+        <v>735028.5261890998</v>
       </c>
     </row>
     <row r="9">
@@ -39926,28 +39926,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>509.9015850566366</v>
+        <v>571.5343665457017</v>
       </c>
       <c r="AB9" t="n">
-        <v>697.6698439447873</v>
+        <v>781.9985346245446</v>
       </c>
       <c r="AC9" t="n">
-        <v>631.085213224472</v>
+        <v>707.365692021814</v>
       </c>
       <c r="AD9" t="n">
-        <v>509901.5850566366</v>
+        <v>571534.3665457016</v>
       </c>
       <c r="AE9" t="n">
-        <v>697669.8439447873</v>
+        <v>781998.5346245447</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.642725130226893e-06</v>
+        <v>2.808876903464291e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.53472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>631085.213224472</v>
+        <v>707365.6920218139</v>
       </c>
     </row>
     <row r="10">
@@ -40032,28 +40032,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>501.4313459474129</v>
+        <v>562.8935352358858</v>
       </c>
       <c r="AB10" t="n">
-        <v>686.080489114971</v>
+        <v>770.1757680198814</v>
       </c>
       <c r="AC10" t="n">
-        <v>620.6019301538516</v>
+        <v>696.6712736685425</v>
       </c>
       <c r="AD10" t="n">
-        <v>501431.3459474129</v>
+        <v>562893.5352358858</v>
       </c>
       <c r="AE10" t="n">
-        <v>686080.489114971</v>
+        <v>770175.7680198813</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.656123148348321e-06</v>
+        <v>2.831786021344698e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.43441358024691</v>
       </c>
       <c r="AH10" t="n">
-        <v>620601.9301538516</v>
+        <v>696671.2736685425</v>
       </c>
     </row>
     <row r="11">
@@ -40138,28 +40138,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>493.3649369799887</v>
+        <v>554.8271262684615</v>
       </c>
       <c r="AB11" t="n">
-        <v>675.0436725008932</v>
+        <v>759.1389514058036</v>
       </c>
       <c r="AC11" t="n">
-        <v>610.6184518271521</v>
+        <v>686.687795341843</v>
       </c>
       <c r="AD11" t="n">
-        <v>493364.9369799887</v>
+        <v>554827.1262684615</v>
       </c>
       <c r="AE11" t="n">
-        <v>675043.6725008932</v>
+        <v>759138.9514058036</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.66519750325128e-06</v>
+        <v>2.84730215696091e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.36882716049383</v>
       </c>
       <c r="AH11" t="n">
-        <v>610618.4518271521</v>
+        <v>686687.7953418429</v>
       </c>
     </row>
     <row r="12">
@@ -40244,28 +40244,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>483.6160872291933</v>
+        <v>545.0782765176662</v>
       </c>
       <c r="AB12" t="n">
-        <v>661.7048661829582</v>
+        <v>745.8001450878686</v>
       </c>
       <c r="AC12" t="n">
-        <v>598.5526824630685</v>
+        <v>674.6220259777593</v>
       </c>
       <c r="AD12" t="n">
-        <v>483616.0872291934</v>
+        <v>545078.2765176662</v>
       </c>
       <c r="AE12" t="n">
-        <v>661704.8661829582</v>
+        <v>745800.1450878686</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.676513757600853e-06</v>
+        <v>2.866651690788186e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.28395061728395</v>
       </c>
       <c r="AH12" t="n">
-        <v>598552.6824630685</v>
+        <v>674622.0259777594</v>
       </c>
     </row>
     <row r="13">
@@ -40350,28 +40350,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>477.1366473141629</v>
+        <v>538.5988366026356</v>
       </c>
       <c r="AB13" t="n">
-        <v>652.8394106384989</v>
+        <v>736.9346895434091</v>
       </c>
       <c r="AC13" t="n">
-        <v>590.5333335530273</v>
+        <v>666.6026770677182</v>
       </c>
       <c r="AD13" t="n">
-        <v>477136.6473141629</v>
+        <v>538598.8366026357</v>
       </c>
       <c r="AE13" t="n">
-        <v>652839.4106384988</v>
+        <v>736934.6895434092</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.682812427474672e-06</v>
+        <v>2.877421714333557e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.23765432098765</v>
       </c>
       <c r="AH13" t="n">
-        <v>590533.3335530274</v>
+        <v>666602.6770677182</v>
       </c>
     </row>
     <row r="14">
@@ -40456,28 +40456,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>469.9501020057334</v>
+        <v>531.4122912942062</v>
       </c>
       <c r="AB14" t="n">
-        <v>643.0064622995028</v>
+        <v>727.1017412044131</v>
       </c>
       <c r="AC14" t="n">
-        <v>581.6388280028754</v>
+        <v>657.7081715175663</v>
       </c>
       <c r="AD14" t="n">
-        <v>469950.1020057334</v>
+        <v>531412.2912942062</v>
       </c>
       <c r="AE14" t="n">
-        <v>643006.4622995028</v>
+        <v>727101.7412044131</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.689538125814512e-06</v>
+        <v>2.888921908966749e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH14" t="n">
-        <v>581638.8280028753</v>
+        <v>657708.1715175663</v>
       </c>
     </row>
     <row r="15">
@@ -40562,28 +40562,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>464.3432116049421</v>
+        <v>525.805400893415</v>
       </c>
       <c r="AB15" t="n">
-        <v>635.3348674945934</v>
+        <v>719.4301463995037</v>
       </c>
       <c r="AC15" t="n">
-        <v>574.6993994389956</v>
+        <v>650.7687429536865</v>
       </c>
       <c r="AD15" t="n">
-        <v>464343.2116049421</v>
+        <v>525805.400893415</v>
       </c>
       <c r="AE15" t="n">
-        <v>635334.8674945934</v>
+        <v>719430.1463995037</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.692367189401905e-06</v>
+        <v>2.893759292423569e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.16820987654321</v>
       </c>
       <c r="AH15" t="n">
-        <v>574699.3994389955</v>
+        <v>650768.7429536865</v>
       </c>
     </row>
     <row r="16">
@@ -40668,28 +40668,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>462.5494202071838</v>
+        <v>524.0116094956566</v>
       </c>
       <c r="AB16" t="n">
-        <v>632.8805229676892</v>
+        <v>716.9758018725995</v>
       </c>
       <c r="AC16" t="n">
-        <v>572.479294109045</v>
+        <v>648.5486376237358</v>
       </c>
       <c r="AD16" t="n">
-        <v>462549.4202071838</v>
+        <v>524011.6094956566</v>
       </c>
       <c r="AE16" t="n">
-        <v>632880.5229676892</v>
+        <v>716975.8018725995</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.695836795688331e-06</v>
+        <v>2.899691932512121e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.14506172839506</v>
       </c>
       <c r="AH16" t="n">
-        <v>572479.2941090449</v>
+        <v>648548.6376237358</v>
       </c>
     </row>
     <row r="17">
@@ -40774,28 +40774,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>465.0266418979112</v>
+        <v>526.488831186384</v>
       </c>
       <c r="AB17" t="n">
-        <v>636.2699669722502</v>
+        <v>720.3652458771605</v>
       </c>
       <c r="AC17" t="n">
-        <v>575.5452543349252</v>
+        <v>651.6145978496161</v>
       </c>
       <c r="AD17" t="n">
-        <v>465026.6418979112</v>
+        <v>526488.831186384</v>
       </c>
       <c r="AE17" t="n">
-        <v>636269.9669722503</v>
+        <v>720365.2458771606</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.695303010105804e-06</v>
+        <v>2.898779218652343e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.14891975308642</v>
       </c>
       <c r="AH17" t="n">
-        <v>575545.2543349252</v>
+        <v>651614.5978496161</v>
       </c>
     </row>
   </sheetData>
@@ -41071,28 +41071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.2887673650156</v>
+        <v>305.2542666322495</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.719645235996</v>
+        <v>417.6623544740448</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.2972790942904</v>
+        <v>377.8012455558372</v>
       </c>
       <c r="AD2" t="n">
-        <v>248288.7673650155</v>
+        <v>305254.2666322495</v>
       </c>
       <c r="AE2" t="n">
-        <v>339719.645235996</v>
+        <v>417662.3544740448</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.954355599980928e-06</v>
+        <v>4.189084208306702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.53780864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>307297.2790942905</v>
+        <v>377801.2455558372</v>
       </c>
     </row>
   </sheetData>
@@ -41368,28 +41368,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>572.1041906557703</v>
+        <v>647.1301424564056</v>
       </c>
       <c r="AB2" t="n">
-        <v>782.778193110806</v>
+        <v>885.4320102758265</v>
       </c>
       <c r="AC2" t="n">
-        <v>708.0709409964041</v>
+        <v>800.9276219267325</v>
       </c>
       <c r="AD2" t="n">
-        <v>572104.1906557702</v>
+        <v>647130.1424564056</v>
       </c>
       <c r="AE2" t="n">
-        <v>782778.1931108061</v>
+        <v>885432.0102758266</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.439833444643223e-06</v>
+        <v>2.652795983541577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.75231481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>708070.9409964042</v>
+        <v>800927.6219267325</v>
       </c>
     </row>
     <row r="3">
@@ -41474,28 +41474,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>441.4009713516976</v>
+        <v>506.8780869766612</v>
       </c>
       <c r="AB3" t="n">
-        <v>603.9442822398977</v>
+        <v>693.5329604844437</v>
       </c>
       <c r="AC3" t="n">
-        <v>546.3046875840449</v>
+        <v>627.3431481154311</v>
       </c>
       <c r="AD3" t="n">
-        <v>441400.9713516976</v>
+        <v>506878.0869766612</v>
       </c>
       <c r="AE3" t="n">
-        <v>603944.2822398976</v>
+        <v>693532.9604844437</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.699617210439336e-06</v>
+        <v>3.13143004573618e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.34490740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>546304.6875840449</v>
+        <v>627343.1481154311</v>
       </c>
     </row>
     <row r="4">
@@ -41580,28 +41580,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>397.9780093297935</v>
+        <v>463.5403763007777</v>
       </c>
       <c r="AB4" t="n">
-        <v>544.5310699156463</v>
+        <v>634.2363928128417</v>
       </c>
       <c r="AC4" t="n">
-        <v>492.5617888570529</v>
+        <v>573.7057616391513</v>
       </c>
       <c r="AD4" t="n">
-        <v>397978.0093297935</v>
+        <v>463540.3763007777</v>
       </c>
       <c r="AE4" t="n">
-        <v>544531.0699156463</v>
+        <v>634236.3928128417</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.788974830717701e-06</v>
+        <v>3.29606543259651e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.67746913580247</v>
       </c>
       <c r="AH4" t="n">
-        <v>492561.7888570529</v>
+        <v>573705.7616391514</v>
       </c>
     </row>
     <row r="5">
@@ -41686,28 +41686,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>374.7419520740343</v>
+        <v>430.9261645784901</v>
       </c>
       <c r="AB5" t="n">
-        <v>512.7384712758185</v>
+        <v>589.6121894969347</v>
       </c>
       <c r="AC5" t="n">
-        <v>463.8034312102178</v>
+        <v>533.3404296572518</v>
       </c>
       <c r="AD5" t="n">
-        <v>374741.9520740343</v>
+        <v>430926.1645784901</v>
       </c>
       <c r="AE5" t="n">
-        <v>512738.4712758185</v>
+        <v>589612.1894969346</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.838003946054645e-06</v>
+        <v>3.386398269860665e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.33796296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>463803.4312102178</v>
+        <v>533340.4296572518</v>
       </c>
     </row>
     <row r="6">
@@ -41792,28 +41792,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>361.7128690287408</v>
+        <v>417.8970815331967</v>
       </c>
       <c r="AB6" t="n">
-        <v>494.9115050506716</v>
+        <v>571.7852232717878</v>
       </c>
       <c r="AC6" t="n">
-        <v>447.6778456212947</v>
+        <v>517.2148440683287</v>
       </c>
       <c r="AD6" t="n">
-        <v>361712.8690287409</v>
+        <v>417897.0815331967</v>
       </c>
       <c r="AE6" t="n">
-        <v>494911.5050506716</v>
+        <v>571785.2232717877</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.860696078572704e-06</v>
+        <v>3.428206993102828e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH6" t="n">
-        <v>447677.8456212947</v>
+        <v>517214.8440683287</v>
       </c>
     </row>
     <row r="7">
@@ -41898,28 +41898,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>362.2426070615786</v>
+        <v>418.4268195660345</v>
       </c>
       <c r="AB7" t="n">
-        <v>495.636315997593</v>
+        <v>572.5100342187089</v>
       </c>
       <c r="AC7" t="n">
-        <v>448.3334816287203</v>
+        <v>517.8704800757544</v>
       </c>
       <c r="AD7" t="n">
-        <v>362242.6070615786</v>
+        <v>418426.8195660345</v>
       </c>
       <c r="AE7" t="n">
-        <v>495636.315997593</v>
+        <v>572510.034218709</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.861813048826183e-06</v>
+        <v>3.430264935438582e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.18364197530864</v>
       </c>
       <c r="AH7" t="n">
-        <v>448333.4816287203</v>
+        <v>517870.4800757543</v>
       </c>
     </row>
   </sheetData>
@@ -42195,28 +42195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>738.0201589137394</v>
+        <v>825.2734448812685</v>
       </c>
       <c r="AB2" t="n">
-        <v>1009.791740577281</v>
+        <v>1129.175535781358</v>
       </c>
       <c r="AC2" t="n">
-        <v>913.4186341081933</v>
+        <v>1021.408607454202</v>
       </c>
       <c r="AD2" t="n">
-        <v>738020.1589137394</v>
+        <v>825273.4448812684</v>
       </c>
       <c r="AE2" t="n">
-        <v>1009791.740577281</v>
+        <v>1129175.535781358</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.260542043579107e-06</v>
+        <v>2.251866368663142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.32253086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>913418.6341081932</v>
+        <v>1021408.607454202</v>
       </c>
     </row>
     <row r="3">
@@ -42301,28 +42301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>536.3946132192814</v>
+        <v>604.3057115595775</v>
       </c>
       <c r="AB3" t="n">
-        <v>733.9187738668313</v>
+        <v>826.8377346422342</v>
       </c>
       <c r="AC3" t="n">
-        <v>663.8745961504486</v>
+        <v>747.9255017220277</v>
       </c>
       <c r="AD3" t="n">
-        <v>536394.6132192814</v>
+        <v>604305.7115595775</v>
       </c>
       <c r="AE3" t="n">
-        <v>733918.7738668313</v>
+        <v>826837.7346422342</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.556674052559659e-06</v>
+        <v>2.780884591502061e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.02777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>663874.5961504487</v>
+        <v>747925.5017220277</v>
       </c>
     </row>
     <row r="4">
@@ -42407,28 +42407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>479.7401840049336</v>
+        <v>538.022858958899</v>
       </c>
       <c r="AB4" t="n">
-        <v>656.4016843987438</v>
+        <v>736.1466115209083</v>
       </c>
       <c r="AC4" t="n">
-        <v>593.7556289052771</v>
+        <v>665.8898121056104</v>
       </c>
       <c r="AD4" t="n">
-        <v>479740.1840049336</v>
+        <v>538022.8589588989</v>
       </c>
       <c r="AE4" t="n">
-        <v>656401.6843987438</v>
+        <v>736146.6115209083</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.664553947268553e-06</v>
+        <v>2.973604150510275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.11728395061728</v>
       </c>
       <c r="AH4" t="n">
-        <v>593755.6289052771</v>
+        <v>665889.8121056104</v>
       </c>
     </row>
     <row r="5">
@@ -42513,28 +42513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>445.4880220849661</v>
+        <v>513.3990309167111</v>
       </c>
       <c r="AB5" t="n">
-        <v>609.5363653611084</v>
+        <v>702.4552036669629</v>
       </c>
       <c r="AC5" t="n">
-        <v>551.3630701407052</v>
+        <v>635.4138649310577</v>
       </c>
       <c r="AD5" t="n">
-        <v>445488.0220849661</v>
+        <v>513399.0309167111</v>
       </c>
       <c r="AE5" t="n">
-        <v>609536.3653611084</v>
+        <v>702455.2036669629</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.719229696633082e-06</v>
+        <v>3.071278386607828e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.70061728395062</v>
       </c>
       <c r="AH5" t="n">
-        <v>551363.0701407052</v>
+        <v>635413.8649310577</v>
       </c>
     </row>
     <row r="6">
@@ -42619,28 +42619,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>427.583449149974</v>
+        <v>485.7807832493677</v>
       </c>
       <c r="AB6" t="n">
-        <v>585.0385387774423</v>
+        <v>664.666698777409</v>
       </c>
       <c r="AC6" t="n">
-        <v>529.2032817432686</v>
+        <v>601.2318419116631</v>
       </c>
       <c r="AD6" t="n">
-        <v>427583.449149974</v>
+        <v>485780.7832493677</v>
       </c>
       <c r="AE6" t="n">
-        <v>585038.5387774423</v>
+        <v>664666.698777409</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.754208592189271e-06</v>
+        <v>3.133765630819306e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.44984567901235</v>
       </c>
       <c r="AH6" t="n">
-        <v>529203.2817432686</v>
+        <v>601231.8419116631</v>
       </c>
     </row>
     <row r="7">
@@ -42725,28 +42725,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>412.8167458480078</v>
+        <v>471.0140799474015</v>
       </c>
       <c r="AB7" t="n">
-        <v>564.8340838587203</v>
+        <v>644.462243858687</v>
       </c>
       <c r="AC7" t="n">
-        <v>510.9271116448588</v>
+        <v>582.9556718132532</v>
       </c>
       <c r="AD7" t="n">
-        <v>412816.7458480078</v>
+        <v>471014.0799474015</v>
       </c>
       <c r="AE7" t="n">
-        <v>564834.0838587203</v>
+        <v>644462.243858687</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.778490058521965e-06</v>
+        <v>3.177142698403001e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.27623456790123</v>
       </c>
       <c r="AH7" t="n">
-        <v>510927.1116448588</v>
+        <v>582955.6718132532</v>
       </c>
     </row>
     <row r="8">
@@ -42831,28 +42831,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>403.0814212157382</v>
+        <v>461.2787553151318</v>
       </c>
       <c r="AB8" t="n">
-        <v>551.5137832046382</v>
+        <v>631.1419432046051</v>
       </c>
       <c r="AC8" t="n">
-        <v>498.8780817900431</v>
+        <v>570.9066419584375</v>
       </c>
       <c r="AD8" t="n">
-        <v>403081.4212157382</v>
+        <v>461278.7553151319</v>
       </c>
       <c r="AE8" t="n">
-        <v>551513.7832046383</v>
+        <v>631141.9432046051</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.79326269887822e-06</v>
+        <v>3.203532942317557e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.17592592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>498878.0817900431</v>
+        <v>570906.6419584375</v>
       </c>
     </row>
     <row r="9">
@@ -42937,28 +42937,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>397.4121691632467</v>
+        <v>455.6095032626404</v>
       </c>
       <c r="AB9" t="n">
-        <v>543.7568624366706</v>
+        <v>623.3850224366375</v>
       </c>
       <c r="AC9" t="n">
-        <v>491.8614706532636</v>
+        <v>563.8900308216581</v>
       </c>
       <c r="AD9" t="n">
-        <v>397412.1691632467</v>
+        <v>455609.5032626404</v>
       </c>
       <c r="AE9" t="n">
-        <v>543756.8624366707</v>
+        <v>623385.0224366375</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.798073712021062e-06</v>
+        <v>3.212127466197777e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.14506172839506</v>
       </c>
       <c r="AH9" t="n">
-        <v>491861.4706532636</v>
+        <v>563890.0308216581</v>
       </c>
     </row>
     <row r="10">
@@ -43043,28 +43043,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>397.0246811681423</v>
+        <v>455.222015267536</v>
       </c>
       <c r="AB10" t="n">
-        <v>543.226684267005</v>
+        <v>622.8548442669717</v>
       </c>
       <c r="AC10" t="n">
-        <v>491.3818919440012</v>
+        <v>563.4104521123955</v>
       </c>
       <c r="AD10" t="n">
-        <v>397024.6811681423</v>
+        <v>455222.015267536</v>
       </c>
       <c r="AE10" t="n">
-        <v>543226.684267005</v>
+        <v>622854.8442669717</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.80107352021601e-06</v>
+        <v>3.217486404617208e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.12577160493827</v>
       </c>
       <c r="AH10" t="n">
-        <v>491381.8919440011</v>
+        <v>563410.4521123955</v>
       </c>
     </row>
   </sheetData>
